--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -181,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$D$2:$D$9</f>
+              <f>'RSSI'!$D$2:$D$21</f>
             </numRef>
           </val>
         </ser>
@@ -211,7 +211,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$E$2:$E$9</f>
+              <f>'RSSI'!$E$2:$E$21</f>
             </numRef>
           </val>
         </ser>
@@ -241,7 +241,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$F$2:$F$9</f>
+              <f>'RSSI'!$F$2:$F$21</f>
             </numRef>
           </val>
         </ser>
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-58</v>
+        <v>-61</v>
       </c>
       <c r="E2" t="n">
-        <v>-58</v>
+        <v>-62</v>
       </c>
       <c r="F2" t="n">
         <v>-65</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E3" t="n">
         <v>-60</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-65</v>
       </c>
       <c r="F3" t="n">
         <v>-65</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="E4" t="n">
-        <v>-58</v>
+        <v>-60</v>
       </c>
       <c r="F4" t="n">
         <v>-65</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E5" t="n">
         <v>-63</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-62</v>
       </c>
       <c r="F5" t="n">
         <v>-65</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-47</v>
+        <v>-55</v>
       </c>
       <c r="E6" t="n">
         <v>-58</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="E7" t="n">
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="F7" t="n">
         <v>-65</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="E8" t="n">
-        <v>-52</v>
+        <v>-59</v>
       </c>
       <c r="F8" t="n">
         <v>-65</v>
@@ -819,21 +819,309 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>7228101900001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7228124100001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7228124200002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7228124200003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7228124200004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7228124200005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7228124200006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7228124200007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7228124200008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7228124200010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7228979800008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>7228979800009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>7228979800010</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>-44</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E21" t="n">
         <v>-48</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F21" t="n">
         <v>-65</v>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -608,9 +608,9 @@
     <col customWidth="1" max="1" min="1" width="7"/>
     <col customWidth="1" max="2" min="2" width="16"/>
     <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="6"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
+    <col customWidth="1" max="5" min="5" width="8"/>
+    <col customWidth="1" max="6" min="6" width="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -798,19 +798,14 @@
           <t>7228101700001</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
       <c r="D8" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="9">

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -608,9 +608,9 @@
     <col customWidth="1" max="1" min="1" width="7"/>
     <col customWidth="1" max="2" min="2" width="16"/>
     <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="8"/>
-    <col customWidth="1" max="5" min="5" width="8"/>
-    <col customWidth="1" max="6" min="6" width="8"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="6"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -798,14 +798,19 @@
           <t>7228101700001</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="D8" t="n">
-        <v/>
+        <v>-53</v>
       </c>
       <c r="E8" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="F8" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="9">

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -608,9 +608,9 @@
     <col customWidth="1" max="1" min="1" width="7"/>
     <col customWidth="1" max="2" min="2" width="16"/>
     <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="6"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
+    <col customWidth="1" max="5" min="5" width="8"/>
+    <col customWidth="1" max="6" min="6" width="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -750,19 +750,14 @@
           <t>7228101400001</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="7">

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -608,9 +608,9 @@
     <col customWidth="1" max="1" min="1" width="7"/>
     <col customWidth="1" max="2" min="2" width="16"/>
     <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="8"/>
-    <col customWidth="1" max="5" min="5" width="8"/>
-    <col customWidth="1" max="6" min="6" width="8"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="6"/>
+    <col customWidth="1" max="6" min="6" width="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -750,14 +750,19 @@
           <t>7228101400001</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v/>
+        <v>-55</v>
       </c>
       <c r="E6" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="F6" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="7">

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RSSI" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,16 +52,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -605,12 +605,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
-    <col customWidth="1" max="2" min="2" width="16"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="7"/>
-    <col customWidth="1" max="5" min="5" width="6"/>
-    <col customWidth="1" max="6" min="6" width="7"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,7 +651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7224908800005</t>
+          <t>7228124300036</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-61</v>
+        <v>-46</v>
       </c>
       <c r="E2" t="n">
-        <v>-62</v>
+        <v>-48</v>
       </c>
       <c r="F2" t="n">
         <v>-65</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7224908800006</t>
+          <t>7228124300026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="E3" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="F3" t="n">
         <v>-65</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7224908800007</t>
+          <t>7228124200065</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-60</v>
+        <v>-47</v>
       </c>
       <c r="E4" t="n">
-        <v>-60</v>
+        <v>-54</v>
       </c>
       <c r="F4" t="n">
         <v>-65</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7228101300001</t>
+          <t>7228979800008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-60</v>
+        <v>-55</v>
       </c>
       <c r="E5" t="n">
-        <v>-63</v>
+        <v>-51</v>
       </c>
       <c r="F5" t="n">
         <v>-65</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7228101400001</t>
+          <t>7228124200054</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-55</v>
+        <v>-47</v>
       </c>
       <c r="E6" t="n">
-        <v>-58</v>
+        <v>-45</v>
       </c>
       <c r="F6" t="n">
         <v>-65</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7228101600001</t>
+          <t>7228124200012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="E7" t="n">
         <v>-54</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7228101700001</t>
+          <t>7228124300034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-53</v>
+        <v>-40</v>
       </c>
       <c r="E8" t="n">
-        <v>-59</v>
+        <v>-55</v>
       </c>
       <c r="F8" t="n">
         <v>-65</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7228101900001</t>
+          <t>7228124200036</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-50</v>
+        <v>-53</v>
       </c>
       <c r="E9" t="n">
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="F9" t="n">
         <v>-65</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7228124100001</t>
+          <t>7228124300076</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="D10" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E10" t="n">
         <v>-54</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-63</v>
       </c>
       <c r="F10" t="n">
         <v>-65</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7228124200002</t>
+          <t>7228124300006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-61</v>
+        <v>-51</v>
       </c>
       <c r="E11" t="n">
-        <v>-65</v>
+        <v>-56</v>
       </c>
       <c r="F11" t="n">
         <v>-65</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7228124200003</t>
+          <t>7228124200006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="E12" t="n">
-        <v>-46</v>
+        <v>-65</v>
       </c>
       <c r="F12" t="n">
         <v>-65</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7228124200004</t>
+          <t>7228124300012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-49</v>
+        <v>-53</v>
       </c>
       <c r="E13" t="n">
-        <v>-55</v>
+        <v>-50</v>
       </c>
       <c r="F13" t="n">
         <v>-65</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7228124200010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-58</v>
+        <v>-47</v>
       </c>
       <c r="E14" t="n">
         <v>-58</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7228124200029</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-60</v>
+        <v>-51</v>
       </c>
       <c r="E15" t="n">
-        <v>-65</v>
+        <v>-40</v>
       </c>
       <c r="F15" t="n">
         <v>-65</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7228124200025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="E16" t="n">
-        <v>-58</v>
+        <v>-63</v>
       </c>
       <c r="F16" t="n">
         <v>-65</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7228124300010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-63</v>
+        <v>-47</v>
       </c>
       <c r="E17" t="n">
-        <v>-62</v>
+        <v>-55</v>
       </c>
       <c r="F17" t="n">
         <v>-65</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7228124300077</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-47</v>
+        <v>-54</v>
       </c>
       <c r="E18" t="n">
-        <v>-58</v>
+        <v>-52</v>
       </c>
       <c r="F18" t="n">
         <v>-65</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7228124200012</t>
+          <t>7228124300074</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="E19" t="n">
-        <v>-54</v>
+        <v>-57</v>
       </c>
       <c r="F19" t="n">
         <v>-65</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7228124200013</t>
+          <t>7228124300081</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-43</v>
+        <v>-59</v>
       </c>
       <c r="E20" t="n">
-        <v>-49</v>
+        <v>-60</v>
       </c>
       <c r="F20" t="n">
         <v>-65</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7228124200014</t>
+          <t>7228124200033</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="E21" t="n">
-        <v>-48</v>
+        <v>-41</v>
       </c>
       <c r="F21" t="n">
         <v>-65</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7228124200017</t>
+          <t>7228124300050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-59</v>
+        <v>-56</v>
       </c>
       <c r="E22" t="n">
-        <v>-57</v>
+        <v>-63</v>
       </c>
       <c r="F22" t="n">
         <v>-65</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7228124200018</t>
+          <t>7228124300067</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1167,7 +1167,7 @@
         <v>-59</v>
       </c>
       <c r="E23" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="F23" t="n">
         <v>-65</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7228124200019</t>
+          <t>7228124300058</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-53</v>
+        <v>-57</v>
       </c>
       <c r="E24" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="F24" t="n">
         <v>-65</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7228124200020</t>
+          <t>7228125100001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="E25" t="n">
-        <v>-50</v>
+        <v>-59</v>
       </c>
       <c r="F25" t="n">
         <v>-65</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7228124200021</t>
+          <t>7228124300011</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-65</v>
+        <v>-44</v>
       </c>
       <c r="E26" t="n">
-        <v>-65</v>
+        <v>-41</v>
       </c>
       <c r="F26" t="n">
         <v>-65</v>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7228124200022</t>
+          <t>7228124200043</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-57</v>
+        <v>-59</v>
       </c>
       <c r="E27" t="n">
-        <v>-50</v>
+        <v>-64</v>
       </c>
       <c r="F27" t="n">
         <v>-65</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7228124200023</t>
+          <t>7228124200008</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-54</v>
+        <v>-63</v>
       </c>
       <c r="E28" t="n">
-        <v>-49</v>
+        <v>-62</v>
       </c>
       <c r="F28" t="n">
         <v>-65</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7228124200024</t>
+          <t>7228124200003</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-59</v>
+        <v>-50</v>
       </c>
       <c r="E29" t="n">
-        <v>-55</v>
+        <v>-46</v>
       </c>
       <c r="F29" t="n">
         <v>-65</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7228124200025</t>
+          <t>7228124200060</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1335,7 +1335,7 @@
         <v>-57</v>
       </c>
       <c r="E30" t="n">
-        <v>-63</v>
+        <v>-56</v>
       </c>
       <c r="F30" t="n">
         <v>-65</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7228124200026</t>
+          <t>7228101900001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-55</v>
+        <v>-50</v>
       </c>
       <c r="E31" t="n">
-        <v>-60</v>
+        <v>-59</v>
       </c>
       <c r="F31" t="n">
         <v>-65</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7228124200027</t>
+          <t>7228124200059</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-65</v>
+        <v>-50</v>
       </c>
       <c r="E32" t="n">
-        <v>-59</v>
+        <v>-56</v>
       </c>
       <c r="F32" t="n">
         <v>-65</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7228124200029</t>
+          <t>7228124200038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="E34" t="n">
-        <v>-40</v>
+        <v>-59</v>
       </c>
       <c r="F34" t="n">
         <v>-65</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7228124200030</t>
+          <t>7228124300009</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-58</v>
+        <v>-64</v>
       </c>
       <c r="E35" t="n">
-        <v>-61</v>
+        <v>-64</v>
       </c>
       <c r="F35" t="n">
         <v>-65</v>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7228124200031</t>
+          <t>7228124300053</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1476,10 +1476,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="E36" t="n">
-        <v>-50</v>
+        <v>-62</v>
       </c>
       <c r="F36" t="n">
         <v>-65</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7228124200033</t>
+          <t>7228124300084</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1500,10 +1500,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-40</v>
+        <v>-57</v>
       </c>
       <c r="E37" t="n">
-        <v>-41</v>
+        <v>-62</v>
       </c>
       <c r="F37" t="n">
         <v>-65</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7228124200034</t>
+          <t>7228124200039</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="E38" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="F38" t="n">
         <v>-65</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7228124200035</t>
+          <t>7228124200018</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-65</v>
+        <v>-59</v>
       </c>
       <c r="E39" t="n">
         <v>-60</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7228124200036</t>
+          <t>7228124200002</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-53</v>
+        <v>-61</v>
       </c>
       <c r="E40" t="n">
-        <v>-57</v>
+        <v>-65</v>
       </c>
       <c r="F40" t="n">
         <v>-65</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7228124200037</t>
+          <t>7228124200019</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-41</v>
+        <v>-53</v>
       </c>
       <c r="E41" t="n">
-        <v>-59</v>
+        <v>-50</v>
       </c>
       <c r="F41" t="n">
         <v>-65</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7228124200038</t>
+          <t>7228124200067</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-57</v>
+        <v>-61</v>
       </c>
       <c r="E42" t="n">
-        <v>-59</v>
+        <v>-61</v>
       </c>
       <c r="F42" t="n">
         <v>-65</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7228124200039</t>
+          <t>7228124300069</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-56</v>
+        <v>-54</v>
       </c>
       <c r="E43" t="n">
-        <v>-65</v>
+        <v>-59</v>
       </c>
       <c r="F43" t="n">
         <v>-65</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7228124200040</t>
+          <t>7228124200004</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-62</v>
+        <v>-49</v>
       </c>
       <c r="E44" t="n">
-        <v>-64</v>
+        <v>-55</v>
       </c>
       <c r="F44" t="n">
         <v>-65</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7228124200041</t>
+          <t>7228124300033</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-49</v>
+        <v>-60</v>
       </c>
       <c r="E45" t="n">
-        <v>-53</v>
+        <v>-60</v>
       </c>
       <c r="F45" t="n">
         <v>-65</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7228124200042</t>
+          <t>7228124300035</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1716,10 +1716,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-60</v>
+        <v>-45</v>
       </c>
       <c r="E46" t="n">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="F46" t="n">
         <v>-65</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7228124200043</t>
+          <t>7228124300016</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="E47" t="n">
-        <v>-64</v>
+        <v>-62</v>
       </c>
       <c r="F47" t="n">
         <v>-65</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7228124200044</t>
+          <t>7228124200040</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-55</v>
+        <v>-62</v>
       </c>
       <c r="E48" t="n">
-        <v>-46</v>
+        <v>-64</v>
       </c>
       <c r="F48" t="n">
         <v>-65</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7228124200045</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-40</v>
+        <v>-61</v>
       </c>
       <c r="E49" t="n">
-        <v>-53</v>
+        <v>-62</v>
       </c>
       <c r="F49" t="n">
         <v>-65</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7228124200046</t>
+          <t>7228124200042</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-61</v>
+        <v>-60</v>
       </c>
       <c r="E50" t="n">
-        <v>-65</v>
+        <v>-60</v>
       </c>
       <c r="F50" t="n">
         <v>-65</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7228124200047</t>
+          <t>7228124300028</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="E51" t="n">
-        <v>-47</v>
+        <v>-61</v>
       </c>
       <c r="F51" t="n">
         <v>-65</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7228124200048</t>
+          <t>7228124200052</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-49</v>
+        <v>-64</v>
       </c>
       <c r="E52" t="n">
-        <v>-52</v>
+        <v>-58</v>
       </c>
       <c r="F52" t="n">
         <v>-65</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7228124200049</t>
+          <t>7228124300057</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-62</v>
+        <v>-41</v>
       </c>
       <c r="E53" t="n">
-        <v>-58</v>
+        <v>-43</v>
       </c>
       <c r="F53" t="n">
         <v>-65</v>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7228124200052</t>
+          <t>7228124200037</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-64</v>
+        <v>-41</v>
       </c>
       <c r="E55" t="n">
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="F55" t="n">
         <v>-65</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7228124200053</t>
+          <t>7228124200076</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-58</v>
+        <v>-62</v>
       </c>
       <c r="E56" t="n">
-        <v>-61</v>
+        <v>-64</v>
       </c>
       <c r="F56" t="n">
         <v>-65</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7228124200054</t>
+          <t>7228124200084</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-47</v>
+        <v>-38</v>
       </c>
       <c r="E57" t="n">
-        <v>-45</v>
+        <v>-48</v>
       </c>
       <c r="F57" t="n">
         <v>-65</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7228124200055</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2007,7 +2007,7 @@
         <v>-60</v>
       </c>
       <c r="E58" t="n">
-        <v>-59</v>
+        <v>-54</v>
       </c>
       <c r="F58" t="n">
         <v>-65</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7228124200056</t>
+          <t>7228124300032</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-65</v>
+        <v>-53</v>
       </c>
       <c r="E59" t="n">
-        <v>-62</v>
+        <v>-52</v>
       </c>
       <c r="F59" t="n">
         <v>-65</v>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7228124200057</t>
+          <t>7228124200005</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-55</v>
+        <v>-58</v>
       </c>
       <c r="E60" t="n">
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="F60" t="n">
         <v>-65</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7228124200058</t>
+          <t>7228124200062</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-57</v>
+        <v>-53</v>
       </c>
       <c r="E61" t="n">
-        <v>-62</v>
+        <v>-53</v>
       </c>
       <c r="F61" t="n">
         <v>-65</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7228124200059</t>
+          <t>7228124200014</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="E62" t="n">
-        <v>-56</v>
+        <v>-48</v>
       </c>
       <c r="F62" t="n">
         <v>-65</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7228124200060</t>
+          <t>7228124200080</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-57</v>
+        <v>-60</v>
       </c>
       <c r="E63" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="F63" t="n">
         <v>-65</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7228124200061</t>
+          <t>7228124200057</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-51</v>
+        <v>-55</v>
       </c>
       <c r="E64" t="n">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="F64" t="n">
         <v>-65</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7228124200062</t>
+          <t>7228124300063</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-53</v>
+        <v>-48</v>
       </c>
       <c r="E65" t="n">
-        <v>-53</v>
+        <v>-55</v>
       </c>
       <c r="F65" t="n">
         <v>-65</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7228124200064</t>
+          <t>7228124200077</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-56</v>
+        <v>-61</v>
       </c>
       <c r="E66" t="n">
-        <v>-54</v>
+        <v>-57</v>
       </c>
       <c r="F66" t="n">
         <v>-65</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7228124200065</t>
+          <t>7228124200048</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2220,10 +2220,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-47</v>
+        <v>-49</v>
       </c>
       <c r="E67" t="n">
-        <v>-54</v>
+        <v>-52</v>
       </c>
       <c r="F67" t="n">
         <v>-65</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7228124200066</t>
+          <t>7228124300030</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-59</v>
+        <v>-48</v>
       </c>
       <c r="E68" t="n">
-        <v>-56</v>
+        <v>-51</v>
       </c>
       <c r="F68" t="n">
         <v>-65</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7228124200067</t>
+          <t>7228124300062</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-61</v>
+        <v>-54</v>
       </c>
       <c r="E69" t="n">
-        <v>-61</v>
+        <v>-49</v>
       </c>
       <c r="F69" t="n">
         <v>-65</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7228124200068</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-56</v>
+        <v>-60</v>
       </c>
       <c r="E70" t="n">
-        <v>-51</v>
+        <v>-63</v>
       </c>
       <c r="F70" t="n">
         <v>-65</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7228124200069</t>
+          <t>7228124200066</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-54</v>
+        <v>-59</v>
       </c>
       <c r="E71" t="n">
-        <v>-55</v>
+        <v>-56</v>
       </c>
       <c r="F71" t="n">
         <v>-65</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7228124200070</t>
+          <t>7228124200082</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="E72" t="n">
         <v>-63</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7228124200071</t>
+          <t>7228124200020</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="E73" t="n">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="F73" t="n">
         <v>-65</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7228124200075</t>
+          <t>7228124200044</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="E74" t="n">
-        <v>-56</v>
+        <v>-46</v>
       </c>
       <c r="F74" t="n">
         <v>-65</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7228124200076</t>
+          <t>7228124300024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="E75" t="n">
-        <v>-64</v>
+        <v>-57</v>
       </c>
       <c r="F75" t="n">
         <v>-65</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7228124200077</t>
+          <t>7228124200021</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-61</v>
+        <v>-65</v>
       </c>
       <c r="E76" t="n">
-        <v>-57</v>
+        <v>-65</v>
       </c>
       <c r="F76" t="n">
         <v>-65</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7228124200078</t>
+          <t>7228124200058</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="E77" t="n">
-        <v>-61</v>
+        <v>-62</v>
       </c>
       <c r="F77" t="n">
         <v>-65</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7228124200079</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-64</v>
+        <v>-62</v>
       </c>
       <c r="E78" t="n">
-        <v>-65</v>
+        <v>-60</v>
       </c>
       <c r="F78" t="n">
         <v>-65</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7228124200080</t>
+          <t>7228124200068</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="E79" t="n">
-        <v>-62</v>
+        <v>-51</v>
       </c>
       <c r="F79" t="n">
         <v>-65</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7228124200081</t>
+          <t>7228124300073</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-49</v>
+        <v>-55</v>
       </c>
       <c r="E80" t="n">
-        <v>-45</v>
+        <v>-54</v>
       </c>
       <c r="F80" t="n">
         <v>-65</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7228124200082</t>
+          <t>7228124200078</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-63</v>
+        <v>-60</v>
       </c>
       <c r="E81" t="n">
-        <v>-63</v>
+        <v>-61</v>
       </c>
       <c r="F81" t="n">
         <v>-65</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7228124200084</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-38</v>
+        <v>-55</v>
       </c>
       <c r="E82" t="n">
-        <v>-48</v>
+        <v>-58</v>
       </c>
       <c r="F82" t="n">
         <v>-65</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7228124200085</t>
+          <t>7228124200056</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="E83" t="n">
-        <v>-65</v>
+        <v>-62</v>
       </c>
       <c r="F83" t="n">
         <v>-65</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7228124300002</t>
+          <t>7228124200070</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-43</v>
+        <v>-61</v>
       </c>
       <c r="E84" t="n">
-        <v>-59</v>
+        <v>-63</v>
       </c>
       <c r="F84" t="n">
         <v>-65</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7228124300003</t>
+          <t>7228124300025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-57</v>
+        <v>-54</v>
       </c>
       <c r="E85" t="n">
-        <v>-58</v>
+        <v>-51</v>
       </c>
       <c r="F85" t="n">
         <v>-65</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7228124300006</t>
+          <t>7228124300015</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-51</v>
+        <v>-64</v>
       </c>
       <c r="E86" t="n">
-        <v>-56</v>
+        <v>-61</v>
       </c>
       <c r="F86" t="n">
         <v>-65</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7228124300009</t>
+          <t>7228124200085</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-64</v>
+        <v>-63</v>
       </c>
       <c r="E87" t="n">
-        <v>-64</v>
+        <v>-65</v>
       </c>
       <c r="F87" t="n">
         <v>-65</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7228124300010</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-47</v>
+        <v>-60</v>
       </c>
       <c r="E88" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="F88" t="n">
         <v>-65</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7228124300011</t>
+          <t>7228124300020</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-44</v>
+        <v>-51</v>
       </c>
       <c r="E89" t="n">
-        <v>-41</v>
+        <v>-57</v>
       </c>
       <c r="F89" t="n">
         <v>-65</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7228124300012</t>
+          <t>7228124300019</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-53</v>
+        <v>-55</v>
       </c>
       <c r="E90" t="n">
         <v>-50</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7228124300013</t>
+          <t>7228124200061</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-55</v>
+        <v>-51</v>
       </c>
       <c r="E91" t="n">
-        <v>-65</v>
+        <v>-60</v>
       </c>
       <c r="F91" t="n">
         <v>-65</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7228124300014</t>
+          <t>7228124300002</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2820,10 +2820,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-64</v>
+        <v>-43</v>
       </c>
       <c r="E92" t="n">
-        <v>-63</v>
+        <v>-59</v>
       </c>
       <c r="F92" t="n">
         <v>-65</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7228124300015</t>
+          <t>7228124200041</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-64</v>
+        <v>-49</v>
       </c>
       <c r="E93" t="n">
-        <v>-61</v>
+        <v>-53</v>
       </c>
       <c r="F93" t="n">
         <v>-65</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7228124300016</t>
+          <t>7228124300068</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2871,7 +2871,7 @@
         <v>-60</v>
       </c>
       <c r="E94" t="n">
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="F94" t="n">
         <v>-65</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7228124300018</t>
+          <t>7228124300031</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2892,10 +2892,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-64</v>
+        <v>-53</v>
       </c>
       <c r="E95" t="n">
-        <v>-63</v>
+        <v>-58</v>
       </c>
       <c r="F95" t="n">
         <v>-65</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7228124300019</t>
+          <t>7228124300013</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2919,7 +2919,7 @@
         <v>-55</v>
       </c>
       <c r="E96" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="F96" t="n">
         <v>-65</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7228124300020</t>
+          <t>7228124300056</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="E97" t="n">
-        <v>-57</v>
+        <v>-55</v>
       </c>
       <c r="F97" t="n">
         <v>-65</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7228124300023</t>
+          <t>7228124200035</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-51</v>
+        <v>-65</v>
       </c>
       <c r="E98" t="n">
-        <v>-51</v>
+        <v>-60</v>
       </c>
       <c r="F98" t="n">
         <v>-65</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7228124300024</t>
+          <t>7228979800009</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-59</v>
+        <v>-56</v>
       </c>
       <c r="E99" t="n">
-        <v>-57</v>
+        <v>-52</v>
       </c>
       <c r="F99" t="n">
         <v>-65</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7228124300025</t>
+          <t>7228124300054</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-54</v>
+        <v>-47</v>
       </c>
       <c r="E100" t="n">
-        <v>-51</v>
+        <v>-52</v>
       </c>
       <c r="F100" t="n">
         <v>-65</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7228124300026</t>
+          <t>7228124200031</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-61</v>
+        <v>-53</v>
       </c>
       <c r="E101" t="n">
-        <v>-58</v>
+        <v>-50</v>
       </c>
       <c r="F101" t="n">
         <v>-65</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7228124300028</t>
+          <t>7228124300041</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-65</v>
+        <v>-57</v>
       </c>
       <c r="E102" t="n">
-        <v>-61</v>
+        <v>-53</v>
       </c>
       <c r="F102" t="n">
         <v>-65</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7228124300029</t>
+          <t>7228124200026</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-57</v>
+        <v>-55</v>
       </c>
       <c r="E103" t="n">
-        <v>-65</v>
+        <v>-60</v>
       </c>
       <c r="F103" t="n">
         <v>-65</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7228124300030</t>
+          <t>7228124300039</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-48</v>
+        <v>-47</v>
       </c>
       <c r="E104" t="n">
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="F104" t="n">
         <v>-65</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7228124300031</t>
+          <t>7228124300037</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="E105" t="n">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="F105" t="n">
         <v>-65</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7228124300032</t>
+          <t>7228124300061</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>-53</v>
       </c>
       <c r="E106" t="n">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="F106" t="n">
         <v>-65</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7228124300033</t>
+          <t>7228124200046</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3180,10 +3180,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-60</v>
+        <v>-61</v>
       </c>
       <c r="E107" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="F107" t="n">
         <v>-65</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7228124300034</t>
+          <t>7228124200075</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3204,10 +3204,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-40</v>
+        <v>-58</v>
       </c>
       <c r="E108" t="n">
-        <v>-55</v>
+        <v>-56</v>
       </c>
       <c r="F108" t="n">
         <v>-65</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7228124300035</t>
+          <t>7228124300003</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="E109" t="n">
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="F109" t="n">
         <v>-65</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7228124300036</t>
+          <t>7228124300029</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-46</v>
+        <v>-57</v>
       </c>
       <c r="E110" t="n">
-        <v>-48</v>
+        <v>-65</v>
       </c>
       <c r="F110" t="n">
         <v>-65</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7228124300037</t>
+          <t>7228124300082</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-56</v>
+        <v>-54</v>
       </c>
       <c r="E111" t="n">
-        <v>-55</v>
+        <v>-51</v>
       </c>
       <c r="F111" t="n">
         <v>-65</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7228124300038</t>
+          <t>7228124200023</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3303,7 +3303,7 @@
         <v>-54</v>
       </c>
       <c r="E112" t="n">
-        <v>-55</v>
+        <v>-49</v>
       </c>
       <c r="F112" t="n">
         <v>-65</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7228124300039</t>
+          <t>7228124300060</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-47</v>
+        <v>-62</v>
       </c>
       <c r="E113" t="n">
-        <v>-53</v>
+        <v>-61</v>
       </c>
       <c r="F113" t="n">
         <v>-65</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7228124300040</t>
+          <t>7228124200049</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3351,7 +3351,7 @@
         <v>-62</v>
       </c>
       <c r="E114" t="n">
-        <v>-64</v>
+        <v>-58</v>
       </c>
       <c r="F114" t="n">
         <v>-65</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7228124300041</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-57</v>
+        <v>-53</v>
       </c>
       <c r="E115" t="n">
-        <v>-53</v>
+        <v>-59</v>
       </c>
       <c r="F115" t="n">
         <v>-65</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7228124300042</t>
+          <t>7228124300023</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-58</v>
+        <v>-51</v>
       </c>
       <c r="E116" t="n">
-        <v>-61</v>
+        <v>-51</v>
       </c>
       <c r="F116" t="n">
         <v>-65</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7228124300045</t>
+          <t>7228124300086</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-61</v>
+        <v>-50</v>
       </c>
       <c r="E117" t="n">
-        <v>-63</v>
+        <v>-55</v>
       </c>
       <c r="F117" t="n">
         <v>-65</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7228124300047</t>
+          <t>7228124300059</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-55</v>
+        <v>-50</v>
       </c>
       <c r="E118" t="n">
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="F118" t="n">
         <v>-65</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7228124300048</t>
+          <t>7228124200079</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-57</v>
+        <v>-64</v>
       </c>
       <c r="E119" t="n">
-        <v>-59</v>
+        <v>-65</v>
       </c>
       <c r="F119" t="n">
         <v>-65</v>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7228124300049</t>
+          <t>7228124100001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-57</v>
+        <v>-54</v>
       </c>
       <c r="E120" t="n">
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="F120" t="n">
         <v>-65</v>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7228124300050</t>
+          <t>7228124200081</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-56</v>
+        <v>-49</v>
       </c>
       <c r="E121" t="n">
-        <v>-63</v>
+        <v>-45</v>
       </c>
       <c r="F121" t="n">
         <v>-65</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7228124300051</t>
+          <t>7228979800010</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-64</v>
+        <v>-44</v>
       </c>
       <c r="E122" t="n">
-        <v>-60</v>
+        <v>-48</v>
       </c>
       <c r="F122" t="n">
         <v>-65</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7228124300053</t>
+          <t>7228124300045</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-52</v>
+        <v>-61</v>
       </c>
       <c r="E123" t="n">
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="F123" t="n">
         <v>-65</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7228124300054</t>
+          <t>7228124300038</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-47</v>
+        <v>-54</v>
       </c>
       <c r="E124" t="n">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="F124" t="n">
         <v>-65</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7228124300055</t>
+          <t>7228124200047</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-43</v>
+        <v>-50</v>
       </c>
       <c r="E125" t="n">
-        <v>-43</v>
+        <v>-47</v>
       </c>
       <c r="F125" t="n">
         <v>-65</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7228124300056</t>
+          <t>7228124200013</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3636,10 +3636,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-57</v>
+        <v>-43</v>
       </c>
       <c r="E126" t="n">
-        <v>-55</v>
+        <v>-49</v>
       </c>
       <c r="F126" t="n">
         <v>-65</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7228124300057</t>
+          <t>7228124200022</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-41</v>
+        <v>-57</v>
       </c>
       <c r="E127" t="n">
-        <v>-43</v>
+        <v>-50</v>
       </c>
       <c r="F127" t="n">
         <v>-65</v>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7228124300058</t>
+          <t>7228124300047</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-57</v>
+        <v>-55</v>
       </c>
       <c r="E128" t="n">
-        <v>-60</v>
+        <v>-51</v>
       </c>
       <c r="F128" t="n">
         <v>-65</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7228124300059</t>
+          <t>7228124300014</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-50</v>
+        <v>-64</v>
       </c>
       <c r="E129" t="n">
-        <v>-54</v>
+        <v>-63</v>
       </c>
       <c r="F129" t="n">
         <v>-65</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7228124300060</t>
+          <t>7228124300018</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3732,10 +3732,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="E130" t="n">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="F130" t="n">
         <v>-65</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7228124300061</t>
+          <t>7228124200069</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E131" t="n">
         <v>-55</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7228124300062</t>
+          <t>7228124300065</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-54</v>
+        <v>-56</v>
       </c>
       <c r="E132" t="n">
-        <v>-49</v>
+        <v>-59</v>
       </c>
       <c r="F132" t="n">
         <v>-65</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7228124300063</t>
+          <t>7228124200007</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3804,10 +3804,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-48</v>
+        <v>-59</v>
       </c>
       <c r="E133" t="n">
-        <v>-55</v>
+        <v>-58</v>
       </c>
       <c r="F133" t="n">
         <v>-65</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7228124300065</t>
+          <t>7228124200045</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-56</v>
+        <v>-40</v>
       </c>
       <c r="E134" t="n">
-        <v>-59</v>
+        <v>-53</v>
       </c>
       <c r="F134" t="n">
         <v>-65</v>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7228124300066</t>
+          <t>7228124200024</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3855,7 +3855,7 @@
         <v>-59</v>
       </c>
       <c r="E135" t="n">
-        <v>-61</v>
+        <v>-55</v>
       </c>
       <c r="F135" t="n">
         <v>-65</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7228124300067</t>
+          <t>7228124200034</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="E136" t="n">
-        <v>-58</v>
+        <v>-63</v>
       </c>
       <c r="F136" t="n">
         <v>-65</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7228124300068</t>
+          <t>7228124200053</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3900,10 +3900,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="E137" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="F137" t="n">
         <v>-65</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7228124300069</t>
+          <t>7228124300040</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="E138" t="n">
-        <v>-59</v>
+        <v>-64</v>
       </c>
       <c r="F138" t="n">
         <v>-65</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7228124300073</t>
+          <t>7228124300042</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-55</v>
+        <v>-58</v>
       </c>
       <c r="E139" t="n">
-        <v>-54</v>
+        <v>-61</v>
       </c>
       <c r="F139" t="n">
         <v>-65</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7228124300074</t>
+          <t>7228124200027</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3972,10 +3972,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-52</v>
+        <v>-65</v>
       </c>
       <c r="E140" t="n">
-        <v>-57</v>
+        <v>-59</v>
       </c>
       <c r="F140" t="n">
         <v>-65</v>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7228124300076</t>
+          <t>7228124200064</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7228124300077</t>
+          <t>7228124300051</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-54</v>
+        <v>-64</v>
       </c>
       <c r="E142" t="n">
-        <v>-52</v>
+        <v>-60</v>
       </c>
       <c r="F142" t="n">
         <v>-65</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7228124300078</t>
+          <t>7228124300066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4044,10 +4044,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-49</v>
+        <v>-59</v>
       </c>
       <c r="E143" t="n">
-        <v>-50</v>
+        <v>-61</v>
       </c>
       <c r="F143" t="n">
         <v>-65</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7228124300081</t>
+          <t>7228124200071</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-59</v>
+        <v>-51</v>
       </c>
       <c r="E144" t="n">
-        <v>-60</v>
+        <v>-53</v>
       </c>
       <c r="F144" t="n">
         <v>-65</v>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7228124300082</t>
+          <t>7228124200055</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="E145" t="n">
-        <v>-51</v>
+        <v>-59</v>
       </c>
       <c r="F145" t="n">
         <v>-65</v>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7228124300083</t>
+          <t>7228124200030</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4116,10 +4116,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-62</v>
+        <v>-58</v>
       </c>
       <c r="E146" t="n">
-        <v>-59</v>
+        <v>-61</v>
       </c>
       <c r="F146" t="n">
         <v>-65</v>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7228124300084</t>
+          <t>7228124300048</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4143,7 +4143,7 @@
         <v>-57</v>
       </c>
       <c r="E147" t="n">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="F147" t="n">
         <v>-65</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7228124300086</t>
+          <t>7228124300049</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4164,10 +4164,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-50</v>
+        <v>-57</v>
       </c>
       <c r="E148" t="n">
-        <v>-55</v>
+        <v>-62</v>
       </c>
       <c r="F148" t="n">
         <v>-65</v>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7228125100001</t>
+          <t>7228124300055</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-56</v>
+        <v>-43</v>
       </c>
       <c r="E149" t="n">
-        <v>-59</v>
+        <v>-43</v>
       </c>
       <c r="F149" t="n">
         <v>-65</v>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7228124300078</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-55</v>
+        <v>-49</v>
       </c>
       <c r="E150" t="n">
-        <v>-51</v>
+        <v>-50</v>
       </c>
       <c r="F150" t="n">
         <v>-65</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7228124300083</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4236,10 +4236,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="E151" t="n">
-        <v>-52</v>
+        <v>-59</v>
       </c>
       <c r="F151" t="n">
         <v>-65</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7228979800010</t>
+          <t>7228124200017</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4260,17 +4260,17 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-44</v>
+        <v>-59</v>
       </c>
       <c r="E152" t="n">
-        <v>-48</v>
+        <v>-57</v>
       </c>
       <c r="F152" t="n">
         <v>-65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -181,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$D$2</f>
+              <f>'RSSI'!$D$2:$D$144</f>
             </numRef>
           </val>
         </ser>
@@ -211,7 +211,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$E$2</f>
+              <f>'RSSI'!$E$2:$E$144</f>
             </numRef>
           </val>
         </ser>
@@ -241,7 +241,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$F$2</f>
+              <f>'RSSI'!$F$2:$F$144</f>
             </numRef>
           </val>
         </ser>
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,9 +608,9 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,8 +651,3425 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7242218700023</t>
-        </is>
+          <t>7242218100015</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7242218100012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7242218200038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7242213400072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7242213400015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7242218500005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7242218300012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7242218200010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7242213700005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7242257600007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>7242213400040</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7242218300037</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-39</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7242218200026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7242214000019</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7242218200032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-39</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7242214000003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7242213400009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7242218100006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>7242218100034</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7242213400028</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7242218300035</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>7242218200002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7242257600003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7242213400047</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7242214000008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>7242214000034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7242257600004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7242218100016</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7242218300038</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7242218200017</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-38</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7242218100045</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7242257600020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7242214000016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>7242218200003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7242218100001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>7242218100005</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7242218400002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>7242213400016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>-41</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7242213400039</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>7242218200015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>7242213500034</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>7242218200007</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7242218100003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>7242213400033</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>7242213400006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7242257600015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7242257600018</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7242218300021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-42</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7242218200035</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-39</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>7242218200039</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7242218100026</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7242218100035</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>7242213600048</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v/>
+      </c>
+      <c r="E54" t="n">
+        <v/>
+      </c>
+      <c r="F54" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7242218300010</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7242218300022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7242218100010</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7242218200014</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7242213500020</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>7242218200016</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>7242213500016</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>7242218200028</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>7242213400076</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>7242214000010</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7242257600009</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>7242214000025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>7242218400006</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>7242218100013</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>7242218400004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>7242257600014</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7242213400062</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7242218100037</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7242213400065</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>7242213400058</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>7242218200008</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>7242257600001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>7242213400077</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>7242218300002</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>7242218300030</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>-39</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>7242218200011</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>7242213500025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>7242213400067</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>7242213400048</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>7242218200006</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>7242214000026</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>7242218300029</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7242218100029</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7242213400054</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7242218300036</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>7242218400001</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7242214000006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>7242213500023</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>7242213400043</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>7242218200023</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>7242257600019</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>7242218100042</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>7242218200030</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>7242218300025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>7242218100007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>7242214000017</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>7242218100002</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>7242213500010</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>7242218100019</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>-53</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>7242218100025</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>7242213500019</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>7242218100033</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>7242213500032</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>7242213500033</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>7242218200012</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>7242218100038</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-41</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>7242257600017</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>7242218300024</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>7242218100031</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>7242218200021</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>7242213400052</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>7242213500026</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>7242214000020</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>7242218500004</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>7242257600016</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>7242218300014</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>7242218300028</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>7242218300031</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>7242214000021</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>-37</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-37</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>7242213400050</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>7242218200013</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>7242218300039</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>7242218300027</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>7242213400014</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>-42</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-41</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>7242218300015</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>7242257600010</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>7242213400042</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>7242218200009</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>-39</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-38</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>7242213600046</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v/>
+      </c>
+      <c r="E133" t="n">
+        <v/>
+      </c>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>7242213500013</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>7242213400003</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>7242218400003</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>-46</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>7242218300005</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>7242213400034</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>7242218300006</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>7242214000013</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>7242218200040</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v/>
+      </c>
+      <c r="E141" t="n">
+        <v/>
+      </c>
+      <c r="F141" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>7242257600012</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>7242213400010</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>7242218200037</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-65</v>
       </c>
     </row>
   </sheetData>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -181,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$D$2:$D$144</f>
+              <f>'RSSI'!$D$2:$D$152</f>
             </numRef>
           </val>
         </ser>
@@ -211,7 +211,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$E$2:$E$144</f>
+              <f>'RSSI'!$E$2:$E$152</f>
             </numRef>
           </val>
         </ser>
@@ -241,7 +241,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$F$2:$F$144</f>
+              <f>'RSSI'!$F$2:$F$152</f>
             </numRef>
           </val>
         </ser>
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,9 +608,9 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,7 +651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7242218100015</t>
+          <t>7228124300036</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-47</v>
+        <v>-46</v>
       </c>
       <c r="E2" t="n">
         <v>-48</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7242218100012</t>
+          <t>7228124300026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="E3" t="n">
-        <v>-65</v>
+        <v>-58</v>
       </c>
       <c r="F3" t="n">
         <v>-65</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7242218200038</t>
+          <t>7228124200065</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-61</v>
+        <v>-47</v>
       </c>
       <c r="E4" t="n">
-        <v>-62</v>
+        <v>-54</v>
       </c>
       <c r="F4" t="n">
         <v>-65</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7242213400072</t>
+          <t>7228979800008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="E5" t="n">
-        <v>-52</v>
+        <v>-51</v>
       </c>
       <c r="F5" t="n">
         <v>-65</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7242213400015</t>
+          <t>7228124200054</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-52</v>
+        <v>-47</v>
       </c>
       <c r="E6" t="n">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="F6" t="n">
         <v>-65</v>
@@ -771,7 +771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7242218500005</t>
+          <t>7228124200012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E7" t="n">
         <v>-54</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-56</v>
       </c>
       <c r="F7" t="n">
         <v>-65</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7242218300012</t>
+          <t>7228124300034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-58</v>
+        <v>-40</v>
       </c>
       <c r="E8" t="n">
-        <v>-53</v>
+        <v>-55</v>
       </c>
       <c r="F8" t="n">
         <v>-65</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7242218200010</t>
+          <t>7228124200036</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-65</v>
+        <v>-53</v>
       </c>
       <c r="E9" t="n">
-        <v>-62</v>
+        <v>-57</v>
       </c>
       <c r="F9" t="n">
         <v>-65</v>
@@ -843,22 +843,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7242213700005</t>
+          <t>7228124300076</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>-56</v>
       </c>
       <c r="E10" t="n">
-        <v/>
+        <v>-54</v>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="11">
@@ -867,7 +867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7242257600007</t>
+          <t>7228124300006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-43</v>
+        <v>-51</v>
       </c>
       <c r="E11" t="n">
-        <v>-40</v>
+        <v>-56</v>
       </c>
       <c r="F11" t="n">
         <v>-65</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7242213400040</t>
+          <t>7228124200006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -903,7 +903,7 @@
         <v>-60</v>
       </c>
       <c r="E12" t="n">
-        <v>-53</v>
+        <v>-65</v>
       </c>
       <c r="F12" t="n">
         <v>-65</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7242218300037</t>
+          <t>7228124300012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-42</v>
+        <v>-53</v>
       </c>
       <c r="E13" t="n">
-        <v>-39</v>
+        <v>-50</v>
       </c>
       <c r="F13" t="n">
         <v>-65</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7242218200026</t>
+          <t>7228124200010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-55</v>
+        <v>-47</v>
       </c>
       <c r="E14" t="n">
-        <v>-64</v>
+        <v>-58</v>
       </c>
       <c r="F14" t="n">
         <v>-65</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7242214000019</t>
+          <t>7228124200029</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-55</v>
+        <v>-51</v>
       </c>
       <c r="E15" t="n">
-        <v>-49</v>
+        <v>-40</v>
       </c>
       <c r="F15" t="n">
         <v>-65</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7242218200032</t>
+          <t>7228124200025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-48</v>
+        <v>-57</v>
       </c>
       <c r="E16" t="n">
-        <v>-39</v>
+        <v>-63</v>
       </c>
       <c r="F16" t="n">
         <v>-65</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7242214000003</t>
+          <t>7228124300010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>-47</v>
+      </c>
+      <c r="E17" t="n">
         <v>-55</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-48</v>
       </c>
       <c r="F17" t="n">
         <v>-65</v>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7242213400009</t>
+          <t>7228124300077</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-62</v>
+        <v>-54</v>
       </c>
       <c r="E18" t="n">
-        <v>-60</v>
+        <v>-52</v>
       </c>
       <c r="F18" t="n">
         <v>-65</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7242218100006</t>
+          <t>7228124300074</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-42</v>
+        <v>-52</v>
       </c>
       <c r="E19" t="n">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="F19" t="n">
         <v>-65</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7242218100034</t>
+          <t>7228124300081</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-54</v>
+        <v>-59</v>
       </c>
       <c r="E20" t="n">
-        <v>-51</v>
+        <v>-60</v>
       </c>
       <c r="F20" t="n">
         <v>-65</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7242213400028</t>
+          <t>7228124200033</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1116,10 +1116,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-51</v>
+        <v>-40</v>
       </c>
       <c r="E21" t="n">
-        <v>-49</v>
+        <v>-41</v>
       </c>
       <c r="F21" t="n">
         <v>-65</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7242218300035</t>
+          <t>7228124300050</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-50</v>
+        <v>-56</v>
       </c>
       <c r="E22" t="n">
-        <v>-56</v>
+        <v>-63</v>
       </c>
       <c r="F22" t="n">
         <v>-65</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7242218200002</t>
+          <t>7228124300067</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E23" t="n">
         <v>-58</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-65</v>
       </c>
       <c r="F23" t="n">
         <v>-65</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7242257600003</t>
+          <t>7228124300058</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-53</v>
+        <v>-57</v>
       </c>
       <c r="E24" t="n">
-        <v>-52</v>
+        <v>-60</v>
       </c>
       <c r="F24" t="n">
         <v>-65</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7242213400047</t>
+          <t>7228125100001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-46</v>
+        <v>-56</v>
       </c>
       <c r="E25" t="n">
-        <v>-48</v>
+        <v>-59</v>
       </c>
       <c r="F25" t="n">
         <v>-65</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7242214000008</t>
+          <t>7228124300011</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-54</v>
+        <v>-44</v>
       </c>
       <c r="E26" t="n">
-        <v>-51</v>
+        <v>-41</v>
       </c>
       <c r="F26" t="n">
         <v>-65</v>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7242214000034</t>
+          <t>7228124200043</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-65</v>
+        <v>-59</v>
       </c>
       <c r="E27" t="n">
-        <v>-65</v>
+        <v>-64</v>
       </c>
       <c r="F27" t="n">
         <v>-65</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7242257600004</t>
+          <t>7228124200008</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-58</v>
+        <v>-63</v>
       </c>
       <c r="E28" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="F28" t="n">
         <v>-65</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7242218100016</t>
+          <t>7228124200003</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E29" t="n">
-        <v>-52</v>
+        <v>-46</v>
       </c>
       <c r="F29" t="n">
         <v>-65</v>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7242218300038</t>
+          <t>7228124200060</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1335,7 +1335,7 @@
         <v>-57</v>
       </c>
       <c r="E30" t="n">
-        <v>-58</v>
+        <v>-56</v>
       </c>
       <c r="F30" t="n">
         <v>-65</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7242218200017</t>
+          <t>7228101900001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-44</v>
+        <v>-50</v>
       </c>
       <c r="E31" t="n">
-        <v>-38</v>
+        <v>-59</v>
       </c>
       <c r="F31" t="n">
         <v>-65</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7242218100045</t>
+          <t>7228124200059</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-43</v>
+        <v>-50</v>
       </c>
       <c r="E32" t="n">
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="F32" t="n">
         <v>-65</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7242257600020</t>
+          <t>7228124200028</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="E33" t="n">
-        <v>-64</v>
+        <v>-62</v>
       </c>
       <c r="F33" t="n">
         <v>-65</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7242214000016</t>
+          <t>7228124200038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-49</v>
+        <v>-57</v>
       </c>
       <c r="E34" t="n">
-        <v>-52</v>
+        <v>-59</v>
       </c>
       <c r="F34" t="n">
         <v>-65</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7242218200003</t>
+          <t>7228124300009</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-54</v>
+        <v>-64</v>
       </c>
       <c r="E35" t="n">
-        <v>-45</v>
+        <v>-64</v>
       </c>
       <c r="F35" t="n">
         <v>-65</v>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7242218100001</t>
+          <t>7228124300053</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1479,7 +1479,7 @@
         <v>-52</v>
       </c>
       <c r="E36" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="F36" t="n">
         <v>-65</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7242218100005</t>
+          <t>7228124300084</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1500,10 +1500,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-52</v>
+        <v>-57</v>
       </c>
       <c r="E37" t="n">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="F37" t="n">
         <v>-65</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7242218400002</t>
+          <t>7228124200039</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-58</v>
+        <v>-56</v>
       </c>
       <c r="E38" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="F38" t="n">
         <v>-65</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7242213400016</t>
+          <t>7228124200018</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-41</v>
+        <v>-59</v>
       </c>
       <c r="E39" t="n">
-        <v>-44</v>
+        <v>-60</v>
       </c>
       <c r="F39" t="n">
         <v>-65</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7242213400039</t>
+          <t>7228124200002</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-57</v>
+        <v>-61</v>
       </c>
       <c r="E40" t="n">
-        <v>-56</v>
+        <v>-65</v>
       </c>
       <c r="F40" t="n">
         <v>-65</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7242218200015</t>
+          <t>7228124200019</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-57</v>
+        <v>-53</v>
       </c>
       <c r="E41" t="n">
-        <v>-56</v>
+        <v>-50</v>
       </c>
       <c r="F41" t="n">
         <v>-65</v>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7242213500034</t>
+          <t>7228124200067</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-49</v>
+        <v>-61</v>
       </c>
       <c r="E42" t="n">
-        <v>-53</v>
+        <v>-61</v>
       </c>
       <c r="F42" t="n">
         <v>-65</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7242218200007</t>
+          <t>7228124300069</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-49</v>
+        <v>-54</v>
       </c>
       <c r="E43" t="n">
-        <v>-50</v>
+        <v>-59</v>
       </c>
       <c r="F43" t="n">
         <v>-65</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7242218100003</t>
+          <t>7228124200004</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1668,10 +1668,10 @@
         </is>
       </c>
       <c r="D44" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E44" t="n">
         <v>-55</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-52</v>
       </c>
       <c r="F44" t="n">
         <v>-65</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7242213400033</t>
+          <t>7228124300033</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-51</v>
+        <v>-60</v>
       </c>
       <c r="E45" t="n">
-        <v>-49</v>
+        <v>-60</v>
       </c>
       <c r="F45" t="n">
         <v>-65</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7242213400006</t>
+          <t>7228124300035</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1716,10 +1716,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="E46" t="n">
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="F46" t="n">
         <v>-65</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7242257600015</t>
+          <t>7228124300016</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-53</v>
+        <v>-60</v>
       </c>
       <c r="E47" t="n">
-        <v>-52</v>
+        <v>-62</v>
       </c>
       <c r="F47" t="n">
         <v>-65</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7242257600018</t>
+          <t>7228124200040</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-49</v>
+        <v>-62</v>
       </c>
       <c r="E48" t="n">
-        <v>-47</v>
+        <v>-64</v>
       </c>
       <c r="F48" t="n">
         <v>-65</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7242218300021</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-44</v>
+        <v>-61</v>
       </c>
       <c r="E49" t="n">
-        <v>-42</v>
+        <v>-62</v>
       </c>
       <c r="F49" t="n">
         <v>-65</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7242218200035</t>
+          <t>7228124200042</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-46</v>
+        <v>-60</v>
       </c>
       <c r="E50" t="n">
-        <v>-39</v>
+        <v>-60</v>
       </c>
       <c r="F50" t="n">
         <v>-65</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7242218200039</t>
+          <t>7228124300028</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-56</v>
+        <v>-65</v>
       </c>
       <c r="E51" t="n">
-        <v>-57</v>
+        <v>-61</v>
       </c>
       <c r="F51" t="n">
         <v>-65</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7242218100026</t>
+          <t>7228124200052</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-49</v>
+        <v>-64</v>
       </c>
       <c r="E52" t="n">
-        <v>-48</v>
+        <v>-58</v>
       </c>
       <c r="F52" t="n">
         <v>-65</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7242218100035</t>
+          <t>7228124300057</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-45</v>
+        <v>-41</v>
       </c>
       <c r="E53" t="n">
-        <v>-45</v>
+        <v>-43</v>
       </c>
       <c r="F53" t="n">
         <v>-65</v>
@@ -1899,22 +1899,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7242213600048</t>
+          <t>7228124200051</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E54" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="F54" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="55">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7242218300010</t>
+          <t>7228124200037</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-61</v>
+        <v>-41</v>
       </c>
       <c r="E55" t="n">
-        <v>-60</v>
+        <v>-59</v>
       </c>
       <c r="F55" t="n">
         <v>-65</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7242218300022</t>
+          <t>7228124200076</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="E56" t="n">
-        <v>-55</v>
+        <v>-64</v>
       </c>
       <c r="F56" t="n">
         <v>-65</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7242218100010</t>
+          <t>7228124200084</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-63</v>
+        <v>-38</v>
       </c>
       <c r="E57" t="n">
-        <v>-63</v>
+        <v>-48</v>
       </c>
       <c r="F57" t="n">
         <v>-65</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7242218200014</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-46</v>
+        <v>-60</v>
       </c>
       <c r="E58" t="n">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="F58" t="n">
         <v>-65</v>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7242213500020</t>
+          <t>7228124300032</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-57</v>
+        <v>-53</v>
       </c>
       <c r="E59" t="n">
-        <v>-55</v>
+        <v>-52</v>
       </c>
       <c r="F59" t="n">
         <v>-65</v>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7242218200016</t>
+          <t>7228124200005</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-53</v>
+        <v>-58</v>
       </c>
       <c r="E60" t="n">
-        <v>-51</v>
+        <v>-58</v>
       </c>
       <c r="F60" t="n">
         <v>-65</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7242213500016</t>
+          <t>7228124200062</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-60</v>
+        <v>-53</v>
       </c>
       <c r="E61" t="n">
-        <v>-64</v>
+        <v>-53</v>
       </c>
       <c r="F61" t="n">
         <v>-65</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7242218200028</t>
+          <t>7228124200014</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-42</v>
+        <v>-49</v>
       </c>
       <c r="E62" t="n">
-        <v>-43</v>
+        <v>-48</v>
       </c>
       <c r="F62" t="n">
         <v>-65</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7242213400076</t>
+          <t>7228124200080</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-53</v>
+        <v>-60</v>
       </c>
       <c r="E63" t="n">
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="F63" t="n">
         <v>-65</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7242214000010</t>
+          <t>7228124200057</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="D64" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E64" t="n">
         <v>-57</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-60</v>
       </c>
       <c r="F64" t="n">
         <v>-65</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7242257600009</t>
+          <t>7228124300063</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="D65" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E65" t="n">
         <v>-55</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-58</v>
       </c>
       <c r="F65" t="n">
         <v>-65</v>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7242214000025</t>
+          <t>7228124200077</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-47</v>
+        <v>-61</v>
       </c>
       <c r="E66" t="n">
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="F66" t="n">
         <v>-65</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7242218400006</t>
+          <t>7228124200048</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2220,10 +2220,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="E67" t="n">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="F67" t="n">
         <v>-65</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7242218100013</t>
+          <t>7228124300030</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-64</v>
+        <v>-48</v>
       </c>
       <c r="E68" t="n">
-        <v>-65</v>
+        <v>-51</v>
       </c>
       <c r="F68" t="n">
         <v>-65</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7242218400004</t>
+          <t>7228124300062</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="E69" t="n">
-        <v>-51</v>
+        <v>-49</v>
       </c>
       <c r="F69" t="n">
         <v>-65</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7242257600014</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="E70" t="n">
-        <v>-56</v>
+        <v>-63</v>
       </c>
       <c r="F70" t="n">
         <v>-65</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7242213400062</t>
+          <t>7228124200066</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="D71" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E71" t="n">
         <v>-56</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-52</v>
       </c>
       <c r="F71" t="n">
         <v>-65</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7242218100037</t>
+          <t>7228124200082</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-52</v>
+        <v>-63</v>
       </c>
       <c r="E72" t="n">
-        <v>-53</v>
+        <v>-63</v>
       </c>
       <c r="F72" t="n">
         <v>-65</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7242213400065</t>
+          <t>7228124200020</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-50</v>
+        <v>-53</v>
       </c>
       <c r="E73" t="n">
         <v>-50</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7242213400058</t>
+          <t>7228124200044</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-51</v>
+        <v>-55</v>
       </c>
       <c r="E74" t="n">
-        <v>-53</v>
+        <v>-46</v>
       </c>
       <c r="F74" t="n">
         <v>-65</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7242218200008</t>
+          <t>7228124300024</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-52</v>
+        <v>-59</v>
       </c>
       <c r="E75" t="n">
-        <v>-55</v>
+        <v>-57</v>
       </c>
       <c r="F75" t="n">
         <v>-65</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7242257600001</t>
+          <t>7228124200021</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-55</v>
+        <v>-65</v>
       </c>
       <c r="E76" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="F76" t="n">
         <v>-65</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7242213400077</t>
+          <t>7228124200058</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="E77" t="n">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="F77" t="n">
         <v>-65</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7242218300002</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="E78" t="n">
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="F78" t="n">
         <v>-65</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7242218300030</t>
+          <t>7228124200068</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-39</v>
+        <v>-56</v>
       </c>
       <c r="E79" t="n">
-        <v>-43</v>
+        <v>-51</v>
       </c>
       <c r="F79" t="n">
         <v>-65</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7242218200011</t>
+          <t>7228124300073</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-47</v>
+        <v>-55</v>
       </c>
       <c r="E80" t="n">
-        <v>-44</v>
+        <v>-54</v>
       </c>
       <c r="F80" t="n">
         <v>-65</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7242213500025</t>
+          <t>7228124200078</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="E81" t="n">
-        <v>-49</v>
+        <v>-61</v>
       </c>
       <c r="F81" t="n">
         <v>-65</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7242213400067</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-47</v>
+        <v>-55</v>
       </c>
       <c r="E82" t="n">
-        <v>-36</v>
+        <v>-58</v>
       </c>
       <c r="F82" t="n">
         <v>-65</v>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7242213400048</t>
+          <t>7228124200056</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-49</v>
+        <v>-65</v>
       </c>
       <c r="E83" t="n">
-        <v>-49</v>
+        <v>-62</v>
       </c>
       <c r="F83" t="n">
         <v>-65</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7242218200006</t>
+          <t>7228124200070</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-52</v>
+        <v>-61</v>
       </c>
       <c r="E84" t="n">
-        <v>-46</v>
+        <v>-63</v>
       </c>
       <c r="F84" t="n">
         <v>-65</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7242214000026</t>
+          <t>7228124300025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-60</v>
+        <v>-54</v>
       </c>
       <c r="E85" t="n">
-        <v>-58</v>
+        <v>-51</v>
       </c>
       <c r="F85" t="n">
         <v>-65</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7242218300029</t>
+          <t>7228124300015</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-43</v>
+        <v>-64</v>
       </c>
       <c r="E86" t="n">
-        <v>-40</v>
+        <v>-61</v>
       </c>
       <c r="F86" t="n">
         <v>-65</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7242218100029</t>
+          <t>7228124200085</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-52</v>
+        <v>-63</v>
       </c>
       <c r="E87" t="n">
-        <v>-58</v>
+        <v>-65</v>
       </c>
       <c r="F87" t="n">
         <v>-65</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7242213400054</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="E88" t="n">
-        <v>-51</v>
+        <v>-60</v>
       </c>
       <c r="F88" t="n">
         <v>-65</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7242218300036</t>
+          <t>7228124300020</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-54</v>
+        <v>-51</v>
       </c>
       <c r="E89" t="n">
-        <v>-55</v>
+        <v>-57</v>
       </c>
       <c r="F89" t="n">
         <v>-65</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7242218400001</t>
+          <t>7228124300019</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-40</v>
+        <v>-55</v>
       </c>
       <c r="E90" t="n">
-        <v>-43</v>
+        <v>-50</v>
       </c>
       <c r="F90" t="n">
         <v>-65</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7242214000006</t>
+          <t>7228124200061</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2799,7 +2799,7 @@
         <v>-51</v>
       </c>
       <c r="E91" t="n">
-        <v>-52</v>
+        <v>-60</v>
       </c>
       <c r="F91" t="n">
         <v>-65</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7242213500023</t>
+          <t>7228124300002</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2820,10 +2820,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-53</v>
+        <v>-43</v>
       </c>
       <c r="E92" t="n">
-        <v>-50</v>
+        <v>-59</v>
       </c>
       <c r="F92" t="n">
         <v>-65</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7242213400043</t>
+          <t>7228124200041</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="E93" t="n">
         <v>-53</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7242218200023</t>
+          <t>7228124300068</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-47</v>
+        <v>-60</v>
       </c>
       <c r="E94" t="n">
-        <v>-53</v>
+        <v>-64</v>
       </c>
       <c r="F94" t="n">
         <v>-65</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7242257600019</t>
+          <t>7228124300031</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2892,10 +2892,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="E95" t="n">
-        <v>-52</v>
+        <v>-58</v>
       </c>
       <c r="F95" t="n">
         <v>-65</v>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7242218100042</t>
+          <t>7228124300013</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-46</v>
+        <v>-55</v>
       </c>
       <c r="E96" t="n">
-        <v>-49</v>
+        <v>-65</v>
       </c>
       <c r="F96" t="n">
         <v>-65</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7242218200030</t>
+          <t>7228124300056</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-64</v>
+        <v>-57</v>
       </c>
       <c r="E97" t="n">
-        <v>-64</v>
+        <v>-55</v>
       </c>
       <c r="F97" t="n">
         <v>-65</v>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7242218300025</t>
+          <t>7228124200035</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-51</v>
+        <v>-65</v>
       </c>
       <c r="E98" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="F98" t="n">
         <v>-65</v>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7242218100007</t>
+          <t>7228979800009</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="E99" t="n">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="F99" t="n">
         <v>-65</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7242214000017</t>
+          <t>7228124300054</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-59</v>
+        <v>-47</v>
       </c>
       <c r="E100" t="n">
-        <v>-56</v>
+        <v>-52</v>
       </c>
       <c r="F100" t="n">
         <v>-65</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7242218100002</t>
+          <t>7228124200031</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="E101" t="n">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="F101" t="n">
         <v>-65</v>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7242213500010</t>
+          <t>7228124300041</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="E102" t="n">
-        <v>-49</v>
+        <v>-53</v>
       </c>
       <c r="F102" t="n">
         <v>-65</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7242218100019</t>
+          <t>7228124200026</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3084,10 +3084,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-53</v>
+        <v>-55</v>
       </c>
       <c r="E103" t="n">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="F103" t="n">
         <v>-65</v>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7242218100025</t>
+          <t>7228124300039</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-45</v>
+        <v>-47</v>
       </c>
       <c r="E104" t="n">
-        <v>-45</v>
+        <v>-53</v>
       </c>
       <c r="F104" t="n">
         <v>-65</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7242213500019</t>
+          <t>7228124300037</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-54</v>
+        <v>-56</v>
       </c>
       <c r="E105" t="n">
-        <v>-57</v>
+        <v>-55</v>
       </c>
       <c r="F105" t="n">
         <v>-65</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7242218100033</t>
+          <t>7228124300061</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-43</v>
+        <v>-53</v>
       </c>
       <c r="E106" t="n">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="F106" t="n">
         <v>-65</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7242213500032</t>
+          <t>7228124200046</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3180,10 +3180,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-47</v>
+        <v>-61</v>
       </c>
       <c r="E107" t="n">
-        <v>-44</v>
+        <v>-65</v>
       </c>
       <c r="F107" t="n">
         <v>-65</v>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7242213500033</t>
+          <t>7228124200075</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3204,10 +3204,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-62</v>
+        <v>-58</v>
       </c>
       <c r="E108" t="n">
-        <v>-65</v>
+        <v>-56</v>
       </c>
       <c r="F108" t="n">
         <v>-65</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7242218200012</t>
+          <t>7228124300003</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="E109" t="n">
-        <v>-45</v>
+        <v>-58</v>
       </c>
       <c r="F109" t="n">
         <v>-65</v>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7242218100038</t>
+          <t>7228124300029</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-30</v>
+        <v>-57</v>
       </c>
       <c r="E110" t="n">
-        <v>-41</v>
+        <v>-65</v>
       </c>
       <c r="F110" t="n">
         <v>-65</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7242257600017</t>
+          <t>7228124300082</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="E111" t="n">
-        <v>-47</v>
+        <v>-51</v>
       </c>
       <c r="F111" t="n">
         <v>-65</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7242218300024</t>
+          <t>7228124200023</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="E112" t="n">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="F112" t="n">
         <v>-65</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7242218100031</t>
+          <t>7228124300060</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-49</v>
+        <v>-62</v>
       </c>
       <c r="E113" t="n">
-        <v>-56</v>
+        <v>-61</v>
       </c>
       <c r="F113" t="n">
         <v>-65</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7242218200021</t>
+          <t>7228124200049</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3348,10 +3348,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-51</v>
+        <v>-62</v>
       </c>
       <c r="E114" t="n">
-        <v>-54</v>
+        <v>-58</v>
       </c>
       <c r="F114" t="n">
         <v>-65</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7242213400052</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-50</v>
+        <v>-53</v>
       </c>
       <c r="E115" t="n">
-        <v>-51</v>
+        <v>-59</v>
       </c>
       <c r="F115" t="n">
         <v>-65</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7242213500026</t>
+          <t>7228124300023</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="E116" t="n">
-        <v>-57</v>
+        <v>-51</v>
       </c>
       <c r="F116" t="n">
         <v>-65</v>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7242214000020</t>
+          <t>7228124300086</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-46</v>
+        <v>-50</v>
       </c>
       <c r="E117" t="n">
-        <v>-47</v>
+        <v>-55</v>
       </c>
       <c r="F117" t="n">
         <v>-65</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7242218500004</t>
+          <t>7228124300059</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3447,7 +3447,7 @@
         <v>-50</v>
       </c>
       <c r="E118" t="n">
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="F118" t="n">
         <v>-65</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7242257600016</t>
+          <t>7228124200079</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3468,10 +3468,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-52</v>
+        <v>-64</v>
       </c>
       <c r="E119" t="n">
-        <v>-56</v>
+        <v>-65</v>
       </c>
       <c r="F119" t="n">
         <v>-65</v>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7242218300014</t>
+          <t>7228124100001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-38</v>
+        <v>-54</v>
       </c>
       <c r="E120" t="n">
-        <v>-45</v>
+        <v>-63</v>
       </c>
       <c r="F120" t="n">
         <v>-65</v>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7242218300028</t>
+          <t>7228124200081</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-59</v>
+        <v>-49</v>
       </c>
       <c r="E121" t="n">
-        <v>-60</v>
+        <v>-45</v>
       </c>
       <c r="F121" t="n">
         <v>-65</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7242218300031</t>
+          <t>7228979800010</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3540,10 +3540,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-58</v>
+        <v>-44</v>
       </c>
       <c r="E122" t="n">
-        <v>-55</v>
+        <v>-48</v>
       </c>
       <c r="F122" t="n">
         <v>-65</v>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7242214000021</t>
+          <t>7228124300045</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-37</v>
+        <v>-61</v>
       </c>
       <c r="E123" t="n">
-        <v>-37</v>
+        <v>-63</v>
       </c>
       <c r="F123" t="n">
         <v>-65</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7242213400050</t>
+          <t>7228124300038</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3591,7 +3591,7 @@
         <v>-54</v>
       </c>
       <c r="E124" t="n">
-        <v>-52</v>
+        <v>-55</v>
       </c>
       <c r="F124" t="n">
         <v>-65</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7242218200013</t>
+          <t>7228124200047</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-44</v>
+        <v>-50</v>
       </c>
       <c r="E125" t="n">
-        <v>-50</v>
+        <v>-47</v>
       </c>
       <c r="F125" t="n">
         <v>-65</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7242218300039</t>
+          <t>7228124200013</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3636,10 +3636,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-56</v>
+        <v>-43</v>
       </c>
       <c r="E126" t="n">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="F126" t="n">
         <v>-65</v>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7242218300027</t>
+          <t>7228124200022</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-49</v>
+        <v>-57</v>
       </c>
       <c r="E127" t="n">
-        <v>-46</v>
+        <v>-50</v>
       </c>
       <c r="F127" t="n">
         <v>-65</v>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7242213400014</t>
+          <t>7228124300047</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-42</v>
+        <v>-55</v>
       </c>
       <c r="E128" t="n">
-        <v>-41</v>
+        <v>-51</v>
       </c>
       <c r="F128" t="n">
         <v>-65</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7242218300015</t>
+          <t>7228124300014</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-59</v>
+        <v>-64</v>
       </c>
       <c r="E129" t="n">
-        <v>-52</v>
+        <v>-63</v>
       </c>
       <c r="F129" t="n">
         <v>-65</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7242257600010</t>
+          <t>7228124300018</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3732,10 +3732,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="E130" t="n">
-        <v>-54</v>
+        <v>-63</v>
       </c>
       <c r="F130" t="n">
         <v>-65</v>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7242213400042</t>
+          <t>7228124200069</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3759,7 +3759,7 @@
         <v>-54</v>
       </c>
       <c r="E131" t="n">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="F131" t="n">
         <v>-65</v>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7242218200009</t>
+          <t>7228124300065</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3780,10 +3780,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-39</v>
+        <v>-56</v>
       </c>
       <c r="E132" t="n">
-        <v>-38</v>
+        <v>-59</v>
       </c>
       <c r="F132" t="n">
         <v>-65</v>
@@ -3795,22 +3795,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7242213600046</t>
+          <t>7228124200007</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="E133" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="F133" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="134">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7242213500013</t>
+          <t>7228124200045</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="E134" t="n">
-        <v>-57</v>
+        <v>-53</v>
       </c>
       <c r="F134" t="n">
         <v>-65</v>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7242213400003</t>
+          <t>7228124200024</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3852,10 +3852,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-50</v>
+        <v>-59</v>
       </c>
       <c r="E135" t="n">
-        <v>-53</v>
+        <v>-55</v>
       </c>
       <c r="F135" t="n">
         <v>-65</v>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7242218400003</t>
+          <t>7228124200034</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-46</v>
+        <v>-60</v>
       </c>
       <c r="E136" t="n">
-        <v>-49</v>
+        <v>-63</v>
       </c>
       <c r="F136" t="n">
         <v>-65</v>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7242218300005</t>
+          <t>7228124200053</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3900,10 +3900,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-51</v>
+        <v>-58</v>
       </c>
       <c r="E137" t="n">
-        <v>-51</v>
+        <v>-61</v>
       </c>
       <c r="F137" t="n">
         <v>-65</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7242213400034</t>
+          <t>7228124300040</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-47</v>
+        <v>-62</v>
       </c>
       <c r="E138" t="n">
-        <v>-50</v>
+        <v>-64</v>
       </c>
       <c r="F138" t="n">
         <v>-65</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7242218300006</t>
+          <t>7228124300042</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-51</v>
+        <v>-58</v>
       </c>
       <c r="E139" t="n">
-        <v>-58</v>
+        <v>-61</v>
       </c>
       <c r="F139" t="n">
         <v>-65</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7242214000013</t>
+          <t>7228124200027</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3972,10 +3972,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-57</v>
+        <v>-65</v>
       </c>
       <c r="E140" t="n">
-        <v>-57</v>
+        <v>-59</v>
       </c>
       <c r="F140" t="n">
         <v>-65</v>
@@ -3987,17 +3987,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7242218200040</t>
+          <t>7228124200064</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v/>
+        <v>-56</v>
       </c>
       <c r="E141" t="n">
-        <v/>
+        <v>-54</v>
       </c>
       <c r="F141" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="142">
@@ -4006,7 +4011,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7242257600012</t>
+          <t>7228124300051</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4018,7 +4023,7 @@
         <v>-64</v>
       </c>
       <c r="E142" t="n">
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="F142" t="n">
         <v>-65</v>
@@ -4030,7 +4035,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7242213400010</t>
+          <t>7228124300066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4039,10 +4044,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-51</v>
+        <v>-59</v>
       </c>
       <c r="E143" t="n">
-        <v>-51</v>
+        <v>-61</v>
       </c>
       <c r="F143" t="n">
         <v>-65</v>
@@ -4054,7 +4059,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7242218200037</t>
+          <t>7228124200071</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4063,12 +4068,204 @@
         </is>
       </c>
       <c r="D144" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>7228124200055</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>7228124200030</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7228124300048</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
         <v>-57</v>
       </c>
-      <c r="E144" t="n">
-        <v>-58</v>
-      </c>
-      <c r="F144" t="n">
+      <c r="E147" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7228124300049</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7228124300055</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>7228124300078</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>-49</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7228124300083</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>7228124200017</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F152" t="n">
         <v>-65</v>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -181,7 +181,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$D$2:$D$152</f>
+              <f>'RSSI'!$D$2:$D$276</f>
             </numRef>
           </val>
         </ser>
@@ -211,7 +211,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$E$2:$E$152</f>
+              <f>'RSSI'!$E$2:$E$276</f>
             </numRef>
           </val>
         </ser>
@@ -241,7 +241,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'RSSI'!$F$2:$F$152</f>
+              <f>'RSSI'!$F$2:$F$276</f>
             </numRef>
           </val>
         </ser>
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,9 +608,9 @@
     <col width="7" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,7 +651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7228124300036</t>
+          <t>7249141800018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-46</v>
+        <v>-64</v>
       </c>
       <c r="E2" t="n">
-        <v>-48</v>
+        <v>-55</v>
       </c>
       <c r="F2" t="n">
         <v>-65</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7228124300026</t>
+          <t>7249141700008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-61</v>
+        <v>-52</v>
       </c>
       <c r="E3" t="n">
-        <v>-58</v>
+        <v>-53</v>
       </c>
       <c r="F3" t="n">
         <v>-65</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7228124200065</t>
+          <t>7249146200022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-47</v>
+        <v>-60</v>
       </c>
       <c r="E4" t="n">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="F4" t="n">
         <v>-65</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7249146600026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-55</v>
+        <v>-51</v>
       </c>
       <c r="E5" t="n">
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="F5" t="n">
         <v>-65</v>
@@ -747,22 +747,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7228124200054</t>
+          <t>7249146400040</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-47</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>-45</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -771,7 +771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7228124200012</t>
+          <t>7249146600057</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-50</v>
+        <v>-57</v>
       </c>
       <c r="E7" t="n">
-        <v>-54</v>
+        <v>-58</v>
       </c>
       <c r="F7" t="n">
         <v>-65</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7228124300034</t>
+          <t>7249141800047</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-40</v>
+        <v>-56</v>
       </c>
       <c r="E8" t="n">
-        <v>-55</v>
+        <v>-49</v>
       </c>
       <c r="F8" t="n">
         <v>-65</v>
@@ -819,22 +819,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7228124200036</t>
+          <t>7249146400010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -843,22 +843,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7228124300076</t>
+          <t>7249146400035</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -867,7 +867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7228124300006</t>
+          <t>7249141800038</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="E11" t="n">
-        <v>-56</v>
+        <v>-49</v>
       </c>
       <c r="F11" t="n">
         <v>-65</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7249146200038</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-60</v>
+        <v>-55</v>
       </c>
       <c r="E12" t="n">
-        <v>-65</v>
+        <v>-58</v>
       </c>
       <c r="F12" t="n">
         <v>-65</v>
@@ -915,22 +915,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7228124300012</t>
+          <t>7249146800043</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -939,22 +939,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7249146400019</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-47</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -963,22 +963,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7228124200029</t>
+          <t>7249142000064</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-51</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>-40</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7228124200025</t>
+          <t>7249142000005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7228124300010</t>
+          <t>7249142000031</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-47</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -1035,22 +1035,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7228124300077</t>
+          <t>7249142000049</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="E18" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="F18" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7228124300074</t>
+          <t>7249146400054</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="E19" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F19" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7228124300081</t>
+          <t>7249146200040</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-59</v>
+        <v>-51</v>
       </c>
       <c r="E20" t="n">
-        <v>-60</v>
+        <v>-62</v>
       </c>
       <c r="F20" t="n">
         <v>-65</v>
@@ -1107,22 +1107,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7228124200033</t>
+          <t>7249146800041</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-40</v>
+        <v/>
       </c>
       <c r="E21" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="F21" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7228124300050</t>
+          <t>7249141800052</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-56</v>
+        <v>-65</v>
       </c>
       <c r="E22" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="F22" t="n">
         <v>-65</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7228124300067</t>
+          <t>7249141800024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-59</v>
+        <v>-54</v>
       </c>
       <c r="E23" t="n">
-        <v>-58</v>
+        <v>-52</v>
       </c>
       <c r="F23" t="n">
         <v>-65</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7228124300058</t>
+          <t>7249141800031</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-57</v>
+        <v>-64</v>
       </c>
       <c r="E24" t="n">
-        <v>-60</v>
+        <v>-52</v>
       </c>
       <c r="F24" t="n">
         <v>-65</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7228125100001</t>
+          <t>7249146200037</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-56</v>
+        <v>-59</v>
       </c>
       <c r="E25" t="n">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="F25" t="n">
         <v>-65</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7228124300011</t>
+          <t>7249146200023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-44</v>
+        <v>-61</v>
       </c>
       <c r="E26" t="n">
-        <v>-41</v>
+        <v>-54</v>
       </c>
       <c r="F26" t="n">
         <v>-65</v>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7228124200043</t>
+          <t>7249142000063</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E27" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F27" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7249142000041</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E28" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F28" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="29">
@@ -1299,22 +1299,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7228124200003</t>
+          <t>7249146800025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="E29" t="n">
-        <v>-46</v>
+        <v/>
       </c>
       <c r="F29" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="30">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7228124200060</t>
+          <t>7249146200024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="E30" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="F30" t="n">
         <v>-65</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7228101900001</t>
+          <t>7249146500007</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-50</v>
+        <v>-57</v>
       </c>
       <c r="E31" t="n">
-        <v>-59</v>
+        <v>-57</v>
       </c>
       <c r="F31" t="n">
         <v>-65</v>
@@ -1371,22 +1371,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7228124200059</t>
+          <t>7249146400036</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="E32" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="F32" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7228124200028</t>
+          <t>7249146200047</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-56</v>
+        <v>-63</v>
       </c>
       <c r="E33" t="n">
         <v>-62</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7228124200038</t>
+          <t>7249146600040</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-57</v>
+        <v>-63</v>
       </c>
       <c r="E34" t="n">
-        <v>-59</v>
+        <v>-63</v>
       </c>
       <c r="F34" t="n">
         <v>-65</v>
@@ -1443,22 +1443,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7228124300009</t>
+          <t>7249142000039</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E35" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F35" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="36">
@@ -1467,22 +1467,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7228124300053</t>
+          <t>7249146400003</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="E36" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F36" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="37">
@@ -1491,22 +1491,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7228124300084</t>
+          <t>7249142000061</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E37" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F37" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="38">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7228124200039</t>
+          <t>7249146100003</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-56</v>
+        <v>-58</v>
       </c>
       <c r="E38" t="n">
-        <v>-65</v>
+        <v>-62</v>
       </c>
       <c r="F38" t="n">
         <v>-65</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7228124200018</t>
+          <t>7249146600006</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="E39" t="n">
-        <v>-60</v>
+        <v>-55</v>
       </c>
       <c r="F39" t="n">
         <v>-65</v>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7228124200002</t>
+          <t>7249142000037</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E40" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F40" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -1587,22 +1587,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7228124200019</t>
+          <t>7249142000014</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="E41" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="F41" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="42">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7228124200067</t>
+          <t>7249142000028</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E42" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F42" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -1635,22 +1635,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7228124300069</t>
+          <t>7249146400022</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="E43" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F43" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="44">
@@ -1659,22 +1659,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7228124200004</t>
+          <t>7249146800031</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-49</v>
+        <v/>
       </c>
       <c r="E44" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F44" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="45">
@@ -1683,22 +1683,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7228124300033</t>
+          <t>7249142000053</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E45" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F45" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1707,22 +1707,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7228124300035</t>
+          <t>7249141900012</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-45</v>
+        <v/>
       </c>
       <c r="E46" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F46" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="47">
@@ -1731,22 +1731,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7228124300016</t>
+          <t>7249142000056</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E47" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F47" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="48">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7228124200040</t>
+          <t>7249141800062</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="E48" t="n">
-        <v>-64</v>
+        <v>-65</v>
       </c>
       <c r="F48" t="n">
         <v>-65</v>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7224908800005</t>
+          <t>7249141800021</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-61</v>
+        <v>-62</v>
       </c>
       <c r="E49" t="n">
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="F49" t="n">
         <v>-65</v>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7228124200042</t>
+          <t>7249146200074</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-60</v>
+        <v>-64</v>
       </c>
       <c r="E50" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="F50" t="n">
         <v>-65</v>
@@ -1827,22 +1827,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7228124300028</t>
+          <t>7249142000052</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E51" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F51" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="52">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7228124200052</t>
+          <t>7249146200061</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-64</v>
+        <v>-60</v>
       </c>
       <c r="E52" t="n">
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="F52" t="n">
         <v>-65</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7228124300057</t>
+          <t>7249146600012</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-41</v>
+        <v>-61</v>
       </c>
       <c r="E53" t="n">
-        <v>-43</v>
+        <v>-61</v>
       </c>
       <c r="F53" t="n">
         <v>-65</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7228124200051</t>
+          <t>7249141800059</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1911,7 +1911,7 @@
         <v>-64</v>
       </c>
       <c r="E54" t="n">
-        <v>-64</v>
+        <v>-63</v>
       </c>
       <c r="F54" t="n">
         <v>-65</v>
@@ -1923,22 +1923,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7228124200037</t>
+          <t>7249142000043</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-41</v>
+        <v/>
       </c>
       <c r="E55" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F55" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="56">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7228124200076</t>
+          <t>7249146400007</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E56" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F56" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -1971,22 +1971,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7228124200084</t>
+          <t>7249146400020</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-38</v>
+        <v/>
       </c>
       <c r="E57" t="n">
-        <v>-48</v>
+        <v/>
       </c>
       <c r="F57" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="58">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7228101600001</t>
+          <t>7249146400028</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E58" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="F58" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="59">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7228124300032</t>
+          <t>7249146200019</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-53</v>
+        <v>-58</v>
       </c>
       <c r="E59" t="n">
-        <v>-52</v>
+        <v>-64</v>
       </c>
       <c r="F59" t="n">
         <v>-65</v>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7249146600038</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2055,7 +2055,7 @@
         <v>-58</v>
       </c>
       <c r="E60" t="n">
-        <v>-58</v>
+        <v>-62</v>
       </c>
       <c r="F60" t="n">
         <v>-65</v>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7228124200062</t>
+          <t>7249146200069</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-53</v>
+        <v>-63</v>
       </c>
       <c r="E61" t="n">
-        <v>-53</v>
+        <v>-65</v>
       </c>
       <c r="F61" t="n">
         <v>-65</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7228124200014</t>
+          <t>7249141800055</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2100,10 +2100,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-49</v>
+        <v>-61</v>
       </c>
       <c r="E62" t="n">
-        <v>-48</v>
+        <v>-59</v>
       </c>
       <c r="F62" t="n">
         <v>-65</v>
@@ -2115,22 +2115,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7228124200080</t>
+          <t>7249142000040</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E63" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F63" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="64">
@@ -2139,22 +2139,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7228124200057</t>
+          <t>7249146700009</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="E64" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F64" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="65">
@@ -2163,22 +2163,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7228124300063</t>
+          <t>7249146400031</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-48</v>
+        <v/>
       </c>
       <c r="E65" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F65" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="66">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7228124200077</t>
+          <t>7249141800002</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-61</v>
+        <v>-64</v>
       </c>
       <c r="E66" t="n">
-        <v>-57</v>
+        <v>-65</v>
       </c>
       <c r="F66" t="n">
         <v>-65</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7228124200048</t>
+          <t>7249146200046</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2220,10 +2220,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-49</v>
+        <v>-62</v>
       </c>
       <c r="E67" t="n">
-        <v>-52</v>
+        <v>-65</v>
       </c>
       <c r="F67" t="n">
         <v>-65</v>
@@ -2235,22 +2235,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7228124300030</t>
+          <t>7249146400047</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-48</v>
+        <v/>
       </c>
       <c r="E68" t="n">
-        <v>-51</v>
+        <v/>
       </c>
       <c r="F68" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="69">
@@ -2259,22 +2259,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7228124300062</t>
+          <t>7249146300012</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="E69" t="n">
-        <v>-49</v>
+        <v/>
       </c>
       <c r="F69" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="70">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7228101300001</t>
+          <t>7249146500017</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2292,10 +2292,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="E70" t="n">
-        <v>-63</v>
+        <v>-64</v>
       </c>
       <c r="F70" t="n">
         <v>-65</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7228124200066</t>
+          <t>7249141800053</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-59</v>
+        <v>-63</v>
       </c>
       <c r="E71" t="n">
-        <v>-56</v>
+        <v>-63</v>
       </c>
       <c r="F71" t="n">
         <v>-65</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7228124200082</t>
+          <t>7249146100001</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-63</v>
+        <v>-59</v>
       </c>
       <c r="E72" t="n">
-        <v>-63</v>
+        <v>-55</v>
       </c>
       <c r="F72" t="n">
         <v>-65</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7228124200020</t>
+          <t>7249146200048</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-53</v>
+        <v>-48</v>
       </c>
       <c r="E73" t="n">
         <v>-50</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7228124200044</t>
+          <t>7249141800014</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="E74" t="n">
-        <v>-46</v>
+        <v>-59</v>
       </c>
       <c r="F74" t="n">
         <v>-65</v>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7228124300024</t>
+          <t>7249141800020</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-59</v>
+        <v>-54</v>
       </c>
       <c r="E75" t="n">
-        <v>-57</v>
+        <v>-60</v>
       </c>
       <c r="F75" t="n">
         <v>-65</v>
@@ -2427,22 +2427,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7228124200021</t>
+          <t>7249142000003</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E76" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F76" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="77">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7228124200058</t>
+          <t>7249146200041</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-57</v>
+        <v>-59</v>
       </c>
       <c r="E77" t="n">
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="F77" t="n">
         <v>-65</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7224908800006</t>
+          <t>7249146500021</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2487,7 +2487,7 @@
         <v>-62</v>
       </c>
       <c r="E78" t="n">
-        <v>-60</v>
+        <v>-63</v>
       </c>
       <c r="F78" t="n">
         <v>-65</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7228124200068</t>
+          <t>7249146600010</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-56</v>
+        <v>-57</v>
       </c>
       <c r="E79" t="n">
-        <v>-51</v>
+        <v>-54</v>
       </c>
       <c r="F79" t="n">
         <v>-65</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7228124300073</t>
+          <t>7249146600039</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2532,10 +2532,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="E80" t="n">
-        <v>-54</v>
+        <v>-64</v>
       </c>
       <c r="F80" t="n">
         <v>-65</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7228124200078</t>
+          <t>7249146200007</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2559,7 +2559,7 @@
         <v>-60</v>
       </c>
       <c r="E81" t="n">
-        <v>-61</v>
+        <v>-64</v>
       </c>
       <c r="F81" t="n">
         <v>-65</v>
@@ -2571,22 +2571,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7228101400001</t>
+          <t>7249146400051</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="E82" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F82" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="83">
@@ -2595,22 +2595,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7228124200056</t>
+          <t>7249142000057</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E83" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F83" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="84">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7228124200070</t>
+          <t>7249146600008</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-61</v>
+        <v>-60</v>
       </c>
       <c r="E84" t="n">
-        <v>-63</v>
+        <v>-52</v>
       </c>
       <c r="F84" t="n">
         <v>-65</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7228124300025</t>
+          <t>7249141700003</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-54</v>
+        <v>-56</v>
       </c>
       <c r="E85" t="n">
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="F85" t="n">
         <v>-65</v>
@@ -2667,22 +2667,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7228124300015</t>
+          <t>7249141900011</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E86" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F86" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="87">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7228124200085</t>
+          <t>7249141700012</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-63</v>
+        <v>-61</v>
       </c>
       <c r="E87" t="n">
-        <v>-65</v>
+        <v>-61</v>
       </c>
       <c r="F87" t="n">
         <v>-65</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7224908800007</t>
+          <t>7249141800070</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2724,10 +2724,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="E88" t="n">
-        <v>-60</v>
+        <v>-63</v>
       </c>
       <c r="F88" t="n">
         <v>-65</v>
@@ -2739,22 +2739,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7228124300020</t>
+          <t>7249146400053</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-51</v>
+        <v/>
       </c>
       <c r="E89" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F89" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="90">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7228124300019</t>
+          <t>7249146500011</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="D90" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E90" t="n">
         <v>-55</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-50</v>
       </c>
       <c r="F90" t="n">
         <v>-65</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7228124200061</t>
+          <t>7249146200062</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-51</v>
+        <v>-59</v>
       </c>
       <c r="E91" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="F91" t="n">
         <v>-65</v>
@@ -2811,22 +2811,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7228124300002</t>
+          <t>7249146400011</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-43</v>
+        <v/>
       </c>
       <c r="E92" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F92" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="93">
@@ -2835,22 +2835,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7228124200041</t>
+          <t>7249146400032</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-49</v>
+        <v/>
       </c>
       <c r="E93" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="F93" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="94">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7228124300068</t>
+          <t>7249146200056</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="E94" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="F94" t="n">
         <v>-65</v>
@@ -2883,22 +2883,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7228124300031</t>
+          <t>7249146800048</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="E95" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F95" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="96">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7228124300013</t>
+          <t>7249141800056</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2916,10 +2916,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-55</v>
+        <v>-59</v>
       </c>
       <c r="E96" t="n">
-        <v>-65</v>
+        <v>-52</v>
       </c>
       <c r="F96" t="n">
         <v>-65</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7228124300056</t>
+          <t>7249146200042</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-57</v>
+        <v>-63</v>
       </c>
       <c r="E97" t="n">
-        <v>-55</v>
+        <v>-62</v>
       </c>
       <c r="F97" t="n">
         <v>-65</v>
@@ -2955,22 +2955,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7228124200035</t>
+          <t>7249141900008</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E98" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F98" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="99">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7249146200060</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-56</v>
+        <v>-61</v>
       </c>
       <c r="E99" t="n">
-        <v>-52</v>
+        <v>-65</v>
       </c>
       <c r="F99" t="n">
         <v>-65</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7228124300054</t>
+          <t>7249146500022</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-47</v>
+        <v>-62</v>
       </c>
       <c r="E100" t="n">
-        <v>-52</v>
+        <v>-61</v>
       </c>
       <c r="F100" t="n">
         <v>-65</v>
@@ -3027,22 +3027,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7228124200031</t>
+          <t>7249142000002</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="E101" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="F101" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="102">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7228124300041</t>
+          <t>7249146600036</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-57</v>
+        <v>-65</v>
       </c>
       <c r="E102" t="n">
-        <v>-53</v>
+        <v>-64</v>
       </c>
       <c r="F102" t="n">
         <v>-65</v>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7228124200026</t>
+          <t>7249142000006</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="E103" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F103" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="104">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7228124300039</t>
+          <t>7249146200011</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-47</v>
+        <v>-60</v>
       </c>
       <c r="E104" t="n">
-        <v>-53</v>
+        <v>-63</v>
       </c>
       <c r="F104" t="n">
         <v>-65</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7228124300037</t>
+          <t>7249141800029</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-56</v>
+        <v>-65</v>
       </c>
       <c r="E105" t="n">
-        <v>-55</v>
+        <v>-63</v>
       </c>
       <c r="F105" t="n">
         <v>-65</v>
@@ -3147,22 +3147,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7228124300061</t>
+          <t>7249146800005</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="E106" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F106" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="107">
@@ -3171,22 +3171,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7228124200046</t>
+          <t>7249142000036</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E107" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F107" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="108">
@@ -3195,22 +3195,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7228124200075</t>
+          <t>7249146400005</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E108" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="F108" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="109">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7228124300003</t>
+          <t>7249146700014</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E109" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F109" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="110">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7228124300029</t>
+          <t>7249141800028</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-57</v>
+        <v>-48</v>
       </c>
       <c r="E110" t="n">
-        <v>-65</v>
+        <v>-54</v>
       </c>
       <c r="F110" t="n">
         <v>-65</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7228124300082</t>
+          <t>7249146600056</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-54</v>
+        <v>-65</v>
       </c>
       <c r="E111" t="n">
-        <v>-51</v>
+        <v>-58</v>
       </c>
       <c r="F111" t="n">
         <v>-65</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7228124200023</t>
+          <t>7249141800067</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="E112" t="n">
-        <v>-49</v>
+        <v>-53</v>
       </c>
       <c r="F112" t="n">
         <v>-65</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7228124300060</t>
+          <t>7249146200015</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3324,10 +3324,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="E113" t="n">
-        <v>-61</v>
+        <v>-64</v>
       </c>
       <c r="F113" t="n">
         <v>-65</v>
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7228124200049</t>
+          <t>7249146700010</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E114" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F114" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="115">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7228101700001</t>
+          <t>7249146200028</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-53</v>
+        <v>-58</v>
       </c>
       <c r="E115" t="n">
-        <v>-59</v>
+        <v>-61</v>
       </c>
       <c r="F115" t="n">
         <v>-65</v>
@@ -3387,22 +3387,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7228124300023</t>
+          <t>7249142000025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-51</v>
+        <v/>
       </c>
       <c r="E116" t="n">
-        <v>-51</v>
+        <v/>
       </c>
       <c r="F116" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="117">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7228124300086</t>
+          <t>7249146100009</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-50</v>
+        <v>-56</v>
       </c>
       <c r="E117" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="F117" t="n">
         <v>-65</v>
@@ -3435,22 +3435,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7228124300059</t>
+          <t>7249146800044</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="E118" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="F118" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="119">
@@ -3459,22 +3459,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7228124200079</t>
+          <t>7249142000051</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E119" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F119" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="120">
@@ -3483,22 +3483,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7228124100001</t>
+          <t>7249142000062</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="E120" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F120" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="121">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7228124200081</t>
+          <t>7249146200005</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3516,10 +3516,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-49</v>
+        <v>-56</v>
       </c>
       <c r="E121" t="n">
-        <v>-45</v>
+        <v>-62</v>
       </c>
       <c r="F121" t="n">
         <v>-65</v>
@@ -3531,22 +3531,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7228979800010</t>
+          <t>7249141900009</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-44</v>
+        <v/>
       </c>
       <c r="E122" t="n">
-        <v>-48</v>
+        <v/>
       </c>
       <c r="F122" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="123">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7228124300045</t>
+          <t>7249146600004</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-61</v>
+        <v>-58</v>
       </c>
       <c r="E123" t="n">
-        <v>-63</v>
+        <v>-51</v>
       </c>
       <c r="F123" t="n">
         <v>-65</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7228124300038</t>
+          <t>7249146600017</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-54</v>
+        <v>-64</v>
       </c>
       <c r="E124" t="n">
-        <v>-55</v>
+        <v>-65</v>
       </c>
       <c r="F124" t="n">
         <v>-65</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7228124200047</t>
+          <t>7249141800044</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-50</v>
+        <v>-63</v>
       </c>
       <c r="E125" t="n">
-        <v>-47</v>
+        <v>-64</v>
       </c>
       <c r="F125" t="n">
         <v>-65</v>
@@ -3627,22 +3627,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7228124200013</t>
+          <t>7249141900003</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-43</v>
+        <v/>
       </c>
       <c r="E126" t="n">
-        <v>-49</v>
+        <v/>
       </c>
       <c r="F126" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="127">
@@ -3651,22 +3651,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7228124200022</t>
+          <t>7249146800007</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E127" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="F127" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="128">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7228124300047</t>
+          <t>7249146600028</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-55</v>
+        <v>-63</v>
       </c>
       <c r="E128" t="n">
-        <v>-51</v>
+        <v>-63</v>
       </c>
       <c r="F128" t="n">
         <v>-65</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7228124300014</t>
+          <t>7249146200077</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3711,7 +3711,7 @@
         <v>-64</v>
       </c>
       <c r="E129" t="n">
-        <v>-63</v>
+        <v>-59</v>
       </c>
       <c r="F129" t="n">
         <v>-65</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7228124300018</t>
+          <t>7249141800017</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3732,10 +3732,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-64</v>
+        <v>-55</v>
       </c>
       <c r="E130" t="n">
-        <v>-63</v>
+        <v>-57</v>
       </c>
       <c r="F130" t="n">
         <v>-65</v>
@@ -3747,22 +3747,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7228124200069</t>
+          <t>7249142000042</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="E131" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F131" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="132">
@@ -3771,22 +3771,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7228124300065</t>
+          <t>7249146400030</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E132" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F132" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="133">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7249146200066</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3807,7 +3807,7 @@
         <v>-59</v>
       </c>
       <c r="E133" t="n">
-        <v>-58</v>
+        <v>-63</v>
       </c>
       <c r="F133" t="n">
         <v>-65</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7228124200045</t>
+          <t>7249146200009</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-40</v>
+        <v>-61</v>
       </c>
       <c r="E134" t="n">
-        <v>-53</v>
+        <v>-64</v>
       </c>
       <c r="F134" t="n">
         <v>-65</v>
@@ -3843,22 +3843,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7228124200024</t>
+          <t>7249142000029</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E135" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F135" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="136">
@@ -3867,22 +3867,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7228124200034</t>
+          <t>7249146800030</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E136" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F136" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="137">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7228124200053</t>
+          <t>7249146100002</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3900,10 +3900,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-58</v>
+        <v>-62</v>
       </c>
       <c r="E137" t="n">
-        <v>-61</v>
+        <v>-62</v>
       </c>
       <c r="F137" t="n">
         <v>-65</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7228124300040</t>
+          <t>7249146100008</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="E138" t="n">
-        <v>-64</v>
+        <v>-59</v>
       </c>
       <c r="F138" t="n">
         <v>-65</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7228124300042</t>
+          <t>7249146100005</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-58</v>
+        <v>-64</v>
       </c>
       <c r="E139" t="n">
-        <v>-61</v>
+        <v>-62</v>
       </c>
       <c r="F139" t="n">
         <v>-65</v>
@@ -3963,22 +3963,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7228124200027</t>
+          <t>7249142000010</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E140" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F140" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="141">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7228124200064</t>
+          <t>7249146200044</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="E141" t="n">
-        <v>-54</v>
+        <v>-64</v>
       </c>
       <c r="F141" t="n">
         <v>-65</v>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7228124300051</t>
+          <t>7249141900005</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E142" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F142" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="143">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7228124300066</t>
+          <t>7249146400023</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E143" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F143" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="144">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7228124200071</t>
+          <t>7249146600016</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-51</v>
+        <v>-65</v>
       </c>
       <c r="E144" t="n">
-        <v>-53</v>
+        <v>-62</v>
       </c>
       <c r="F144" t="n">
         <v>-65</v>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7228124200055</t>
+          <t>7249141800065</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-60</v>
+        <v>-64</v>
       </c>
       <c r="E145" t="n">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="F145" t="n">
         <v>-65</v>
@@ -4107,22 +4107,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7228124200030</t>
+          <t>7249142000035</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E146" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F146" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="147">
@@ -4131,22 +4131,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7228124300048</t>
+          <t>7249146300002</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E147" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F147" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="148">
@@ -4155,22 +4155,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7228124300049</t>
+          <t>7249146400021</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E148" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F148" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="149">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7228124300055</t>
+          <t>7249146600032</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-43</v>
+        <v>-62</v>
       </c>
       <c r="E149" t="n">
-        <v>-43</v>
+        <v>-59</v>
       </c>
       <c r="F149" t="n">
         <v>-65</v>
@@ -4203,22 +4203,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7228124300078</t>
+          <t>7249146400041</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-49</v>
+        <v/>
       </c>
       <c r="E150" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="F150" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="151">
@@ -4227,22 +4227,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7228124300083</t>
+          <t>7249146300005</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E151" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F151" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="152">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7228124200017</t>
+          <t>7249146200033</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4260,12 +4260,2988 @@
         </is>
       </c>
       <c r="D152" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>7249141900010</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v/>
+      </c>
+      <c r="E153" t="n">
+        <v/>
+      </c>
+      <c r="F153" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>7249142000007</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v/>
+      </c>
+      <c r="E154" t="n">
+        <v/>
+      </c>
+      <c r="F154" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>7249142000060</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v/>
+      </c>
+      <c r="E155" t="n">
+        <v/>
+      </c>
+      <c r="F155" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>7249146600046</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
         <v>-59</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E156" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>7249142000046</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v/>
+      </c>
+      <c r="E157" t="n">
+        <v/>
+      </c>
+      <c r="F157" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>7249141800071</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F158" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>7249142000047</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v/>
+      </c>
+      <c r="E159" t="n">
+        <v/>
+      </c>
+      <c r="F159" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>7249146700001</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v/>
+      </c>
+      <c r="E160" t="n">
+        <v/>
+      </c>
+      <c r="F160" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>7249141700011</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-56</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>7249142000013</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v/>
+      </c>
+      <c r="E162" t="n">
+        <v/>
+      </c>
+      <c r="F162" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>7249142000038</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v/>
+      </c>
+      <c r="E163" t="n">
+        <v/>
+      </c>
+      <c r="F163" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>7249146200012</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>7249146400044</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v/>
+      </c>
+      <c r="E165" t="n">
+        <v/>
+      </c>
+      <c r="F165" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>7249146200035</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>-65</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>7249146500014</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>7249146600020</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>7249146600053</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>7249146100010</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>7249146400013</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v/>
+      </c>
+      <c r="E171" t="n">
+        <v/>
+      </c>
+      <c r="F171" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>7249146500005</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>7249146400038</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v/>
+      </c>
+      <c r="E173" t="n">
+        <v/>
+      </c>
+      <c r="F173" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>7249146200043</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>7249146800016</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v/>
+      </c>
+      <c r="E175" t="n">
+        <v/>
+      </c>
+      <c r="F175" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>7249146200063</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>7249146600005</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F177" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>7249146200054</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>7249141900006</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v/>
+      </c>
+      <c r="E179" t="n">
+        <v/>
+      </c>
+      <c r="F179" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>7249146200049</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
         <v>-57</v>
       </c>
-      <c r="F152" t="n">
+      <c r="E180" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>7249141800064</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F181" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>7249146600033</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>7249146200071</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>7249146500013</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F184" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>7249142000020</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v/>
+      </c>
+      <c r="E185" t="n">
+        <v/>
+      </c>
+      <c r="F185" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>7249141700009</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>-45</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>7249146200030</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F187" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>7249146500008</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>7249146700013</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v/>
+      </c>
+      <c r="E189" t="n">
+        <v/>
+      </c>
+      <c r="F189" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>7249146400018</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v/>
+      </c>
+      <c r="E190" t="n">
+        <v/>
+      </c>
+      <c r="F190" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>7249142000055</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v/>
+      </c>
+      <c r="E191" t="n">
+        <v/>
+      </c>
+      <c r="F191" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>7249142000017</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v/>
+      </c>
+      <c r="E192" t="n">
+        <v/>
+      </c>
+      <c r="F192" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>7249146100011</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>7249146600007</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>7249146400029</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v/>
+      </c>
+      <c r="E195" t="n">
+        <v/>
+      </c>
+      <c r="F195" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>7249146200075</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F196" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>7249146200058</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F197" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>7249146800028</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v/>
+      </c>
+      <c r="E198" t="n">
+        <v/>
+      </c>
+      <c r="F198" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>7249141800012</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E199" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>7249146400033</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v/>
+      </c>
+      <c r="E200" t="n">
+        <v/>
+      </c>
+      <c r="F200" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>7249142000026</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v/>
+      </c>
+      <c r="E201" t="n">
+        <v/>
+      </c>
+      <c r="F201" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>7249146500003</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>7249146200053</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>7249141700002</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>7249146400006</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v/>
+      </c>
+      <c r="E205" t="n">
+        <v/>
+      </c>
+      <c r="F205" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>7249146800040</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v/>
+      </c>
+      <c r="E206" t="n">
+        <v/>
+      </c>
+      <c r="F206" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>7249141800042</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>-54</v>
+      </c>
+      <c r="E207" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>7249146400055</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v/>
+      </c>
+      <c r="E208" t="n">
+        <v/>
+      </c>
+      <c r="F208" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>7249146300013</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v/>
+      </c>
+      <c r="E209" t="n">
+        <v/>
+      </c>
+      <c r="F209" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>7249141800054</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F210" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>7249146500009</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F211" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>7249146500016</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F212" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>7249146200039</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>7249141800045</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-55</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>7249146600049</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F215" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>7249146500015</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>7249146700005</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v/>
+      </c>
+      <c r="E217" t="n">
+        <v/>
+      </c>
+      <c r="F217" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>7249142000011</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v/>
+      </c>
+      <c r="E218" t="n">
+        <v/>
+      </c>
+      <c r="F218" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>7249146800001</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v/>
+      </c>
+      <c r="E219" t="n">
+        <v/>
+      </c>
+      <c r="F219" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>7249146400037</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v/>
+      </c>
+      <c r="E220" t="n">
+        <v/>
+      </c>
+      <c r="F220" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>7249141800061</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E221" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F221" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>7249142000032</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v/>
+      </c>
+      <c r="E222" t="n">
+        <v/>
+      </c>
+      <c r="F222" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>7249142000054</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v/>
+      </c>
+      <c r="E223" t="n">
+        <v/>
+      </c>
+      <c r="F223" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>7249146400042</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v/>
+      </c>
+      <c r="E224" t="n">
+        <v/>
+      </c>
+      <c r="F224" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>7249142000059</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v/>
+      </c>
+      <c r="E225" t="n">
+        <v/>
+      </c>
+      <c r="F225" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>7249141800051</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E226" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F226" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>7249146600025</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>-61</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>7249141800037</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>-43</v>
+      </c>
+      <c r="E228" t="n">
+        <v>-46</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>7249141800046</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E229" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F229" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>7249141800023</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E230" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F230" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>7249146300007</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v/>
+      </c>
+      <c r="E231" t="n">
+        <v/>
+      </c>
+      <c r="F231" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>7249142000034</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v/>
+      </c>
+      <c r="E232" t="n">
+        <v/>
+      </c>
+      <c r="F232" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>7249141800066</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F233" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>7249142000058</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v/>
+      </c>
+      <c r="E234" t="n">
+        <v/>
+      </c>
+      <c r="F234" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>7249146200067</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F235" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>7249142000045</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v/>
+      </c>
+      <c r="E236" t="n">
+        <v/>
+      </c>
+      <c r="F236" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>7249146700002</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v/>
+      </c>
+      <c r="E237" t="n">
+        <v/>
+      </c>
+      <c r="F237" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>7249146200006</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F238" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>7249146200031</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E239" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F239" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>7249146200050</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E240" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F240" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>7249146600055</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F241" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>7249146600052</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E242" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F242" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>7249146200034</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F243" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>7249146400034</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v/>
+      </c>
+      <c r="E244" t="n">
+        <v/>
+      </c>
+      <c r="F244" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>7249146200064</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F245" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>7249146600034</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E246" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F246" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>7249146800014</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v/>
+      </c>
+      <c r="E247" t="n">
+        <v/>
+      </c>
+      <c r="F247" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>7249141800048</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>7249146600019</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>-44</v>
+      </c>
+      <c r="E249" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>7249146700004</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v/>
+      </c>
+      <c r="E250" t="n">
+        <v/>
+      </c>
+      <c r="F250" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>7249146200073</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-48</v>
+      </c>
+      <c r="F251" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>7249146200068</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E252" t="n">
+        <v>-61</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>7249146800010</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v/>
+      </c>
+      <c r="E253" t="n">
+        <v/>
+      </c>
+      <c r="F253" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>7249141700005</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>-52</v>
+      </c>
+      <c r="E254" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F254" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>7249146200072</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>-62</v>
+      </c>
+      <c r="E255" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>7249146600001</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F256" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>7249146400024</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v/>
+      </c>
+      <c r="E257" t="n">
+        <v/>
+      </c>
+      <c r="F257" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>7249146600031</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E258" t="n">
+        <v>-47</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>7249146200029</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>-57</v>
+      </c>
+      <c r="E259" t="n">
+        <v>-65</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>7249141800006</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E260" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>7249141800058</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>-56</v>
+      </c>
+      <c r="E261" t="n">
+        <v>-57</v>
+      </c>
+      <c r="F261" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>7249146400052</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v/>
+      </c>
+      <c r="E262" t="n">
+        <v/>
+      </c>
+      <c r="F262" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>7249146600018</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E263" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>7249146400009</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v/>
+      </c>
+      <c r="E264" t="n">
+        <v/>
+      </c>
+      <c r="F264" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>7249146400016</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v/>
+      </c>
+      <c r="E265" t="n">
+        <v/>
+      </c>
+      <c r="F265" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>7249141800033</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E266" t="n">
+        <v>-59</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>7249146200070</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>-64</v>
+      </c>
+      <c r="E267" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>7249146400025</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v/>
+      </c>
+      <c r="E268" t="n">
+        <v/>
+      </c>
+      <c r="F268" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>7249146800029</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v/>
+      </c>
+      <c r="E269" t="n">
+        <v/>
+      </c>
+      <c r="F269" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>7249146800032</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v/>
+      </c>
+      <c r="E270" t="n">
+        <v/>
+      </c>
+      <c r="F270" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>7249146200055</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>-55</v>
+      </c>
+      <c r="E271" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>7249146200026</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>-60</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>7249146500019</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>-59</v>
+      </c>
+      <c r="E273" t="n">
+        <v>-62</v>
+      </c>
+      <c r="F273" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>7249146400026</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v/>
+      </c>
+      <c r="E274" t="n">
+        <v/>
+      </c>
+      <c r="F274" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>7249141800036</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>-58</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>7249141800049</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E276" t="n">
+        <v>-63</v>
+      </c>
+      <c r="F276" t="n">
         <v>-65</v>
       </c>
     </row>

--- a/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/output/WillyWJ_Chen/RSSI.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="RSSI" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,16 +52,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -605,12 +605,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="16"/>
+    <col customWidth="1" max="3" min="3" width="14"/>
+    <col customWidth="1" max="4" min="4" width="8"/>
+    <col customWidth="1" max="5" min="5" width="8"/>
+    <col customWidth="1" max="6" min="6" width="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -651,7 +651,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7249141800018</t>
+          <t>7249141700002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-64</v>
+        <v>-62</v>
       </c>
       <c r="E2" t="n">
-        <v>-55</v>
+        <v>-57</v>
       </c>
       <c r="F2" t="n">
         <v>-65</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7249141700008</t>
+          <t>7249141700003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-52</v>
+        <v>-56</v>
       </c>
       <c r="E3" t="n">
-        <v>-53</v>
+        <v>-57</v>
       </c>
       <c r="F3" t="n">
         <v>-65</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7249146200022</t>
+          <t>7249141700005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-60</v>
+        <v>-52</v>
       </c>
       <c r="E4" t="n">
-        <v>-62</v>
+        <v>-53</v>
       </c>
       <c r="F4" t="n">
         <v>-65</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7249146600026</t>
+          <t>7249141700008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-51</v>
+        <v>-52</v>
       </c>
       <c r="E5" t="n">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="F5" t="n">
         <v>-65</v>
@@ -747,22 +747,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7249146400040</t>
+          <t>7249141700009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>-45</v>
       </c>
       <c r="E6" t="n">
-        <v/>
+        <v>-52</v>
       </c>
       <c r="F6" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="7">
@@ -771,7 +771,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7249146600057</t>
+          <t>7249141700011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="E7" t="n">
-        <v>-58</v>
+        <v>-56</v>
       </c>
       <c r="F7" t="n">
         <v>-65</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7249141800047</t>
+          <t>7249141700012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-56</v>
+        <v>-61</v>
       </c>
       <c r="E8" t="n">
-        <v>-49</v>
+        <v>-61</v>
       </c>
       <c r="F8" t="n">
         <v>-65</v>
@@ -819,22 +819,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7249146400010</t>
+          <t>7249141800002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E9" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="10">
@@ -843,22 +843,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7249146400035</t>
+          <t>7249141800006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E10" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="11">
@@ -867,7 +867,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7249141800038</t>
+          <t>7249141800012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="E11" t="n">
-        <v>-49</v>
+        <v>-65</v>
       </c>
       <c r="F11" t="n">
         <v>-65</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7249146200038</t>
+          <t>7249141800014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -900,10 +900,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="E12" t="n">
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="F12" t="n">
         <v>-65</v>
@@ -915,22 +915,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7249146800043</t>
+          <t>7249141800017</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>-55</v>
       </c>
       <c r="E13" t="n">
-        <v/>
+        <v>-57</v>
       </c>
       <c r="F13" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="14">
@@ -939,22 +939,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7249146400019</t>
+          <t>7249141800018</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E14" t="n">
-        <v/>
+        <v>-55</v>
       </c>
       <c r="F14" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="15">
@@ -963,22 +963,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7249142000064</t>
+          <t>7249141800020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v/>
+        <v>-54</v>
       </c>
       <c r="E15" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F15" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7249142000005</t>
+          <t>7249141800021</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E16" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F16" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="17">
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7249142000031</t>
+          <t>7249141800023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>-55</v>
       </c>
       <c r="E17" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F17" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="18">
@@ -1035,22 +1035,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7249142000049</t>
+          <t>7249141800024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v/>
+        <v>-54</v>
       </c>
       <c r="E18" t="n">
-        <v/>
+        <v>-52</v>
       </c>
       <c r="F18" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="19">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7249146400054</t>
+          <t>7249141800028</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v/>
+        <v>-48</v>
       </c>
       <c r="E19" t="n">
-        <v/>
+        <v>-54</v>
       </c>
       <c r="F19" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="20">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7249146200040</t>
+          <t>7249141800029</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-51</v>
+        <v>-65</v>
       </c>
       <c r="E20" t="n">
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="F20" t="n">
         <v>-65</v>
@@ -1107,22 +1107,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7249146800041</t>
+          <t>7249141800031</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E21" t="n">
-        <v/>
+        <v>-52</v>
       </c>
       <c r="F21" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="22">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7249141800052</t>
+          <t>7249141800033</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-65</v>
+        <v>-59</v>
       </c>
       <c r="E22" t="n">
-        <v>-65</v>
+        <v>-59</v>
       </c>
       <c r="F22" t="n">
         <v>-65</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7249141800024</t>
+          <t>7249141800036</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-54</v>
+        <v>-58</v>
       </c>
       <c r="E23" t="n">
-        <v>-52</v>
+        <v>-64</v>
       </c>
       <c r="F23" t="n">
         <v>-65</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7249141800031</t>
+          <t>7249141800037</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-64</v>
+        <v>-43</v>
       </c>
       <c r="E24" t="n">
-        <v>-52</v>
+        <v>-46</v>
       </c>
       <c r="F24" t="n">
         <v>-65</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7249146200037</t>
+          <t>7249141800038</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-59</v>
+        <v>-54</v>
       </c>
       <c r="E25" t="n">
-        <v>-62</v>
+        <v>-49</v>
       </c>
       <c r="F25" t="n">
         <v>-65</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7249146200023</t>
+          <t>7249141800042</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-61</v>
+        <v>-54</v>
       </c>
       <c r="E26" t="n">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="F26" t="n">
         <v>-65</v>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7249142000063</t>
+          <t>7249141800044</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E27" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="F27" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7249142000041</t>
+          <t>7249141800045</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="E28" t="n">
-        <v/>
+        <v>-55</v>
       </c>
       <c r="F28" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="29">
@@ -1299,22 +1299,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7249146800025</t>
+          <t>7249141800046</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="E29" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="F29" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="30">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7249146200024</t>
+          <t>7249141800047</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-62</v>
+        <v>-56</v>
       </c>
       <c r="E30" t="n">
-        <v>-62</v>
+        <v>-49</v>
       </c>
       <c r="F30" t="n">
         <v>-65</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7249146500007</t>
+          <t>7249141800048</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1359,7 +1359,7 @@
         <v>-57</v>
       </c>
       <c r="E31" t="n">
-        <v>-57</v>
+        <v>-62</v>
       </c>
       <c r="F31" t="n">
         <v>-65</v>
@@ -1371,22 +1371,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7249146400036</t>
+          <t>7249141800049</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E32" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F32" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="33">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7249146200047</t>
+          <t>7249141800051</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-63</v>
+        <v>-55</v>
       </c>
       <c r="E33" t="n">
-        <v>-62</v>
+        <v>-57</v>
       </c>
       <c r="F33" t="n">
         <v>-65</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7249146600040</t>
+          <t>7249141800052</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="E34" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="F34" t="n">
         <v>-65</v>
@@ -1443,22 +1443,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7249142000039</t>
+          <t>7249141800053</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E35" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F35" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="36">
@@ -1467,22 +1467,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7249146400003</t>
+          <t>7249141800054</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v/>
+        <v>-40</v>
       </c>
       <c r="E36" t="n">
-        <v/>
+        <v>-44</v>
       </c>
       <c r="F36" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="37">
@@ -1491,22 +1491,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7249142000061</t>
+          <t>7249141800055</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E37" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="F37" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="38">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7249146100003</t>
+          <t>7249141800056</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-58</v>
+        <v>-59</v>
       </c>
       <c r="E38" t="n">
-        <v>-62</v>
+        <v>-52</v>
       </c>
       <c r="F38" t="n">
         <v>-65</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7249146600006</t>
+          <t>7249141800058</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="E39" t="n">
-        <v>-55</v>
+        <v>-57</v>
       </c>
       <c r="F39" t="n">
         <v>-65</v>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7249142000037</t>
+          <t>7249141800059</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E40" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F40" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="41">
@@ -1587,22 +1587,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7249142000014</t>
+          <t>7249141800061</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E41" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="F41" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="42">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7249142000028</t>
+          <t>7249141800062</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E42" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="F42" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="43">
@@ -1635,22 +1635,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7249146400022</t>
+          <t>7249141800064</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E43" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F43" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="44">
@@ -1659,22 +1659,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7249146800031</t>
+          <t>7249141800065</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E44" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F44" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="45">
@@ -1683,22 +1683,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7249142000053</t>
+          <t>7249141800066</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v/>
+        <v>-56</v>
       </c>
       <c r="E45" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F45" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="46">
@@ -1707,22 +1707,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7249141900012</t>
+          <t>7249141800067</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E46" t="n">
-        <v/>
+        <v>-53</v>
       </c>
       <c r="F46" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="47">
@@ -1731,22 +1731,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7249142000056</t>
+          <t>7249141800070</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="E47" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F47" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="48">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7249141800062</t>
+          <t>7249141800071</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="E48" t="n">
-        <v>-65</v>
+        <v>-60</v>
       </c>
       <c r="F48" t="n">
         <v>-65</v>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7249141800021</t>
+          <t>7249141900003</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E49" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F49" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="50">
@@ -1803,22 +1803,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7249146200074</t>
+          <t>7249141900005</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E50" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F50" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="51">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7249142000052</t>
+          <t>7249141900006</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1851,22 +1851,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7249146200061</t>
+          <t>7249141900008</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E52" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F52" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="53">
@@ -1875,22 +1875,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7249146600012</t>
+          <t>7249141900009</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E53" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F53" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="54">
@@ -1899,22 +1899,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7249141800059</t>
+          <t>7249141900010</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E54" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F54" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="55">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7249142000043</t>
+          <t>7249141900011</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7249146400007</t>
+          <t>7249141900012</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7249146400020</t>
+          <t>7249142000002</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7249146400028</t>
+          <t>7249142000003</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7249146200019</t>
+          <t>7249142000005</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E59" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F59" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="60">
@@ -2043,22 +2043,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7249146600038</t>
+          <t>7249142000006</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E60" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F60" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="61">
@@ -2067,22 +2067,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7249146200069</t>
+          <t>7249142000007</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E61" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F61" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="62">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7249141800055</t>
+          <t>7249142000010</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E62" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F62" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="63">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7249142000040</t>
+          <t>7249142000011</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7249146700009</t>
+          <t>7249142000013</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7249146400031</t>
+          <t>7249142000014</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2187,22 +2187,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7249141800002</t>
+          <t>7249142000017</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E66" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F66" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="67">
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7249146200046</t>
+          <t>7249142000020</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E67" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F67" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="68">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7249146400047</t>
+          <t>7249142000025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7249146300012</t>
+          <t>7249142000026</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2283,22 +2283,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7249146500017</t>
+          <t>7249142000028</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E70" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F70" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="71">
@@ -2307,22 +2307,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7249141800053</t>
+          <t>7249142000029</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E71" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F71" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="72">
@@ -2331,22 +2331,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7249146100001</t>
+          <t>7249142000031</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E72" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F72" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="73">
@@ -2355,22 +2355,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7249146200048</t>
+          <t>7249142000032</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-48</v>
+        <v/>
       </c>
       <c r="E73" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="F73" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="74">
@@ -2379,22 +2379,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7249141800014</t>
+          <t>7249142000034</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="E74" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F74" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="75">
@@ -2403,22 +2403,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7249141800020</t>
+          <t>7249142000035</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="E75" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F75" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="76">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7249142000003</t>
+          <t>7249142000036</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2451,22 +2451,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7249146200041</t>
+          <t>7249142000037</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E77" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F77" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="78">
@@ -2475,22 +2475,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7249146500021</t>
+          <t>7249142000038</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E78" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F78" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="79">
@@ -2499,22 +2499,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7249146600010</t>
+          <t>7249142000039</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E79" t="n">
-        <v>-54</v>
+        <v/>
       </c>
       <c r="F79" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="80">
@@ -2523,22 +2523,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7249146600039</t>
+          <t>7249142000040</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E80" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F80" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="81">
@@ -2547,22 +2547,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7249146200007</t>
+          <t>7249142000041</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E81" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F81" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="82">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7249146400051</t>
+          <t>7249142000042</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7249142000057</t>
+          <t>7249142000043</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2619,22 +2619,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7249146600008</t>
+          <t>7249142000045</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E84" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="F84" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="85">
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7249141700003</t>
+          <t>7249142000046</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E85" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F85" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="86">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7249141900011</t>
+          <t>7249142000047</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2691,22 +2691,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7249141700012</t>
+          <t>7249142000049</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E87" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F87" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="88">
@@ -2715,22 +2715,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7249141800070</t>
+          <t>7249142000051</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E88" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F88" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="89">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7249146400053</t>
+          <t>7249142000052</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2763,22 +2763,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7249146500011</t>
+          <t>7249142000053</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E90" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="F90" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="91">
@@ -2787,22 +2787,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7249146200062</t>
+          <t>7249142000054</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E91" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F91" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="92">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7249146400011</t>
+          <t>7249142000055</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7249146400032</t>
+          <t>7249142000056</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7249146200056</t>
+          <t>7249142000057</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E94" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F94" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="95">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7249146800048</t>
+          <t>7249142000058</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2907,22 +2907,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7249141800056</t>
+          <t>7249142000059</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E96" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="F96" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="97">
@@ -2931,22 +2931,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7249146200042</t>
+          <t>7249142000060</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E97" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F97" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="98">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7249141900008</t>
+          <t>7249142000061</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2979,22 +2979,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7249146200060</t>
+          <t>7249142000062</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E99" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F99" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="100">
@@ -3003,22 +3003,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7249146500022</t>
+          <t>7249142000063</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E100" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F100" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7249142000002</t>
+          <t>7249142000064</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7249146600036</t>
+          <t>7249146100001</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3060,10 +3060,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-65</v>
+        <v>-59</v>
       </c>
       <c r="E102" t="n">
-        <v>-64</v>
+        <v>-55</v>
       </c>
       <c r="F102" t="n">
         <v>-65</v>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7249142000006</t>
+          <t>7249146100002</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E103" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F103" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="104">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7249146200011</t>
+          <t>7249146100003</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="E104" t="n">
-        <v>-63</v>
+        <v>-62</v>
       </c>
       <c r="F104" t="n">
         <v>-65</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7249141800029</t>
+          <t>7249146100005</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-65</v>
+        <v>-64</v>
       </c>
       <c r="E105" t="n">
-        <v>-63</v>
+        <v>-62</v>
       </c>
       <c r="F105" t="n">
         <v>-65</v>
@@ -3147,22 +3147,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7249146800005</t>
+          <t>7249146100008</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E106" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="F106" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="107">
@@ -3171,22 +3171,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7249142000036</t>
+          <t>7249146100009</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v/>
+        <v>-56</v>
       </c>
       <c r="E107" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F107" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="108">
@@ -3195,22 +3195,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7249146400005</t>
+          <t>7249146100010</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E108" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="F108" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="109">
@@ -3219,22 +3219,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7249146700014</t>
+          <t>7249146100011</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E109" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F109" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="110">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7249141800028</t>
+          <t>7249146200005</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3252,10 +3252,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-48</v>
+        <v>-56</v>
       </c>
       <c r="E110" t="n">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="F110" t="n">
         <v>-65</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7249146600056</t>
+          <t>7249146200006</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3276,10 +3276,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-65</v>
+        <v>-62</v>
       </c>
       <c r="E111" t="n">
-        <v>-58</v>
+        <v>-52</v>
       </c>
       <c r="F111" t="n">
         <v>-65</v>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7249141800067</t>
+          <t>7249146200007</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="E112" t="n">
-        <v>-53</v>
+        <v>-64</v>
       </c>
       <c r="F112" t="n">
         <v>-65</v>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7249146200015</t>
+          <t>7249146200009</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7249146700010</t>
+          <t>7249146200011</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="E114" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F114" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="115">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7249146200028</t>
+          <t>7249146200012</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3372,10 +3372,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-58</v>
+        <v>-60</v>
       </c>
       <c r="E115" t="n">
-        <v>-61</v>
+        <v>-65</v>
       </c>
       <c r="F115" t="n">
         <v>-65</v>
@@ -3387,22 +3387,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7249142000025</t>
+          <t>7249146200015</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E116" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="F116" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="117">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7249146100009</t>
+          <t>7249146200019</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-56</v>
+        <v>-58</v>
       </c>
       <c r="E117" t="n">
-        <v>-60</v>
+        <v>-64</v>
       </c>
       <c r="F117" t="n">
         <v>-65</v>
@@ -3435,22 +3435,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7249146800044</t>
+          <t>7249146200022</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="E118" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F118" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="119">
@@ -3459,22 +3459,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7249142000051</t>
+          <t>7249146200023</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E119" t="n">
-        <v/>
+        <v>-54</v>
       </c>
       <c r="F119" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="120">
@@ -3483,22 +3483,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7249142000062</t>
+          <t>7249146200024</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E120" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F120" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="121">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7249146200005</t>
+          <t>7249146200026</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-56</v>
+        <v>-60</v>
       </c>
       <c r="E121" t="n">
         <v>-62</v>
@@ -3531,22 +3531,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7249141900009</t>
+          <t>7249146200028</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="E122" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="F122" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="123">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7249146600004</t>
+          <t>7249146200029</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-58</v>
+        <v>-57</v>
       </c>
       <c r="E123" t="n">
-        <v>-51</v>
+        <v>-65</v>
       </c>
       <c r="F123" t="n">
         <v>-65</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7249146600017</t>
+          <t>7249146200030</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-64</v>
+        <v>-60</v>
       </c>
       <c r="E124" t="n">
-        <v>-65</v>
+        <v>-53</v>
       </c>
       <c r="F124" t="n">
         <v>-65</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7249141800044</t>
+          <t>7249146200031</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3615,7 +3615,7 @@
         <v>-63</v>
       </c>
       <c r="E125" t="n">
-        <v>-64</v>
+        <v>-60</v>
       </c>
       <c r="F125" t="n">
         <v>-65</v>
@@ -3627,22 +3627,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7249141900003</t>
+          <t>7249146200033</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="E126" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="F126" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="127">
@@ -3651,22 +3651,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7249146800007</t>
+          <t>7249146200034</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E127" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F127" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="128">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7249146600028</t>
+          <t>7249146200035</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="E128" t="n">
-        <v>-63</v>
+        <v>-65</v>
       </c>
       <c r="F128" t="n">
         <v>-65</v>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7249146200077</t>
+          <t>7249146200037</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-64</v>
+        <v>-59</v>
       </c>
       <c r="E129" t="n">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="F129" t="n">
         <v>-65</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7249141800017</t>
+          <t>7249146200038</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3735,7 +3735,7 @@
         <v>-55</v>
       </c>
       <c r="E130" t="n">
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="F130" t="n">
         <v>-65</v>
@@ -3747,22 +3747,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7249142000042</t>
+          <t>7249146200039</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v/>
+        <v>-56</v>
       </c>
       <c r="E131" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F131" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="132">
@@ -3771,22 +3771,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7249146400030</t>
+          <t>7249146200040</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v/>
+        <v>-51</v>
       </c>
       <c r="E132" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F132" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="133">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7249146200066</t>
+          <t>7249146200041</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3807,7 +3807,7 @@
         <v>-59</v>
       </c>
       <c r="E133" t="n">
-        <v>-63</v>
+        <v>-60</v>
       </c>
       <c r="F133" t="n">
         <v>-65</v>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7249146200009</t>
+          <t>7249146200042</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="E134" t="n">
-        <v>-64</v>
+        <v>-62</v>
       </c>
       <c r="F134" t="n">
         <v>-65</v>
@@ -3843,22 +3843,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7249142000029</t>
+          <t>7249146200043</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v/>
+        <v>-56</v>
       </c>
       <c r="E135" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="F135" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="136">
@@ -3867,22 +3867,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7249146800030</t>
+          <t>7249146200044</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E136" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="F136" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="137">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7249146100002</t>
+          <t>7249146200046</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3903,7 +3903,7 @@
         <v>-62</v>
       </c>
       <c r="E137" t="n">
-        <v>-62</v>
+        <v>-65</v>
       </c>
       <c r="F137" t="n">
         <v>-65</v>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7249146100008</t>
+          <t>7249146200047</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3924,10 +3924,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="E138" t="n">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="F138" t="n">
         <v>-65</v>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7249146100005</t>
+          <t>7249146200048</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-64</v>
+        <v>-48</v>
       </c>
       <c r="E139" t="n">
-        <v>-62</v>
+        <v>-50</v>
       </c>
       <c r="F139" t="n">
         <v>-65</v>
@@ -3963,22 +3963,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7249142000010</t>
+          <t>7249146200049</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v/>
+        <v>-57</v>
       </c>
       <c r="E140" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="F140" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="141">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7249146200044</t>
+          <t>7249146200050</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="E141" t="n">
-        <v>-64</v>
+        <v>-61</v>
       </c>
       <c r="F141" t="n">
         <v>-65</v>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7249141900005</t>
+          <t>7249146200053</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E142" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F142" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="143">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7249146400023</t>
+          <t>7249146200054</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E143" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="F143" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="144">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7249146600016</t>
+          <t>7249146200055</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-65</v>
+        <v>-55</v>
       </c>
       <c r="E144" t="n">
-        <v>-62</v>
+        <v>-63</v>
       </c>
       <c r="F144" t="n">
         <v>-65</v>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7249141800065</t>
+          <t>7249146200056</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-64</v>
+        <v>-56</v>
       </c>
       <c r="E145" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="F145" t="n">
         <v>-65</v>
@@ -4107,22 +4107,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7249142000035</t>
+          <t>7249146200058</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E146" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="F146" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="147">
@@ -4131,22 +4131,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7249146300002</t>
+          <t>7249146200060</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E147" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="F147" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="148">
@@ -4155,22 +4155,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7249146400021</t>
+          <t>7249146200061</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="E148" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="F148" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="149">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7249146600032</t>
+          <t>7249146200062</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4188,10 +4188,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="E149" t="n">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="F149" t="n">
         <v>-65</v>
@@ -4203,22 +4203,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7249146400041</t>
+          <t>7249146200063</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="E150" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F150" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="151">
@@ -4227,22 +4227,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7249146300005</t>
+          <t>7249146200064</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v/>
+        <v>-52</v>
       </c>
       <c r="E151" t="n">
-        <v/>
+        <v>-52</v>
       </c>
       <c r="F151" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="152">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7249146200033</t>
+          <t>7249146200066</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4260,10 +4260,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-60</v>
+        <v>-59</v>
       </c>
       <c r="E152" t="n">
-        <v>-64</v>
+        <v>-63</v>
       </c>
       <c r="F152" t="n">
         <v>-65</v>
@@ -4275,22 +4275,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7249141900010</t>
+          <t>7249146200067</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="E153" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F153" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="154">
@@ -4299,22 +4299,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7249142000007</t>
+          <t>7249146200068</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v/>
+        <v>-56</v>
       </c>
       <c r="E154" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="F154" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="155">
@@ -4323,22 +4323,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7249142000060</t>
+          <t>7249146200069</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E155" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="F155" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="156">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7249146600046</t>
+          <t>7249146200070</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-59</v>
+        <v>-64</v>
       </c>
       <c r="E156" t="n">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="F156" t="n">
         <v>-65</v>
@@ -4371,22 +4371,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7249142000046</t>
+          <t>7249146200071</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E157" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F157" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="158">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7249141800071</t>
+          <t>7249146200072</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4404,10 +4404,10 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-59</v>
+        <v>-62</v>
       </c>
       <c r="E158" t="n">
-        <v>-60</v>
+        <v>-62</v>
       </c>
       <c r="F158" t="n">
         <v>-65</v>
@@ -4419,22 +4419,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7249142000047</t>
+          <t>7249146200073</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v/>
+        <v>-55</v>
       </c>
       <c r="E159" t="n">
-        <v/>
+        <v>-48</v>
       </c>
       <c r="F159" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="160">
@@ -4443,22 +4443,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7249146700001</t>
+          <t>7249146200074</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E160" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="F160" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="161">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7249141700011</t>
+          <t>7249146200075</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4479,7 +4479,7 @@
         <v>-62</v>
       </c>
       <c r="E161" t="n">
-        <v>-56</v>
+        <v>-62</v>
       </c>
       <c r="F161" t="n">
         <v>-65</v>
@@ -4491,22 +4491,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7249142000013</t>
+          <t>7249146200077</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E162" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="F162" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="163">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7249142000038</t>
+          <t>7249146300002</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4539,22 +4539,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7249146200012</t>
+          <t>7249146300005</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E164" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F164" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="165">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7249146400044</t>
+          <t>7249146300007</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4587,22 +4587,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7249146200035</t>
+          <t>7249146300012</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="E166" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F166" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="167">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7249146500014</t>
+          <t>7249146300013</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E167" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F167" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="168">
@@ -4635,22 +4635,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7249146600020</t>
+          <t>7249146400003</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E168" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F168" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="169">
@@ -4659,22 +4659,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7249146600053</t>
+          <t>7249146400005</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E169" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F169" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="170">
@@ -4683,22 +4683,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7249146100010</t>
+          <t>7249146400006</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E170" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F170" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="171">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7249146400013</t>
+          <t>7249146400007</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4731,22 +4731,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7249146500005</t>
+          <t>7249146400009</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E172" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F172" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="173">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7249146400038</t>
+          <t>7249146400010</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4779,22 +4779,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7249146200043</t>
+          <t>7249146400011</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E174" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F174" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="175">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7249146800016</t>
+          <t>7249146400013</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4827,22 +4827,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7249146200063</t>
+          <t>7249146400016</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E176" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F176" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="177">
@@ -4851,22 +4851,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7249146600005</t>
+          <t>7249146400018</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E177" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F177" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="178">
@@ -4875,22 +4875,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7249146200054</t>
+          <t>7249146400019</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E178" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F178" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="179">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7249141900006</t>
+          <t>7249146400020</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4923,22 +4923,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7249146200049</t>
+          <t>7249146400021</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E180" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F180" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="181">
@@ -4947,22 +4947,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7249141800064</t>
+          <t>7249146400022</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="E181" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F181" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="182">
@@ -4971,22 +4971,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7249146600033</t>
+          <t>7249146400023</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E182" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F182" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="183">
@@ -4995,22 +4995,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7249146200071</t>
+          <t>7249146400024</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E183" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F183" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="184">
@@ -5019,22 +5019,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7249146500013</t>
+          <t>7249146400025</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E184" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F184" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="185">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7249142000020</t>
+          <t>7249146400026</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5067,22 +5067,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7249141700009</t>
+          <t>7249146400028</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-45</v>
+        <v/>
       </c>
       <c r="E186" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="F186" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="187">
@@ -5091,22 +5091,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7249146200030</t>
+          <t>7249146400029</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E187" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="F187" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="188">
@@ -5115,22 +5115,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7249146500008</t>
+          <t>7249146400030</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E188" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F188" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="189">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7249146700013</t>
+          <t>7249146400031</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7249146400018</t>
+          <t>7249146400032</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7249142000055</t>
+          <t>7249146400033</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7249142000017</t>
+          <t>7249146400034</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5235,22 +5235,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7249146100011</t>
+          <t>7249146400035</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E193" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="F193" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="194">
@@ -5259,22 +5259,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7249146600007</t>
+          <t>7249146400036</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E194" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F194" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="195">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7249146400029</t>
+          <t>7249146400037</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5307,22 +5307,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7249146200075</t>
+          <t>7249146400038</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E196" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F196" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="197">
@@ -5331,22 +5331,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7249146200058</t>
+          <t>7249146400040</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E197" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="F197" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="198">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7249146800028</t>
+          <t>7249146400041</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5379,22 +5379,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7249141800012</t>
+          <t>7249146400042</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E199" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F199" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="200">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7249146400033</t>
+          <t>7249146400044</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7249142000026</t>
+          <t>7249146400047</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5451,22 +5451,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7249146500003</t>
+          <t>7249146400051</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E202" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F202" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="203">
@@ -5475,22 +5475,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7249146200053</t>
+          <t>7249146400052</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E203" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F203" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="204">
@@ -5499,22 +5499,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>7249141700002</t>
+          <t>7249146400053</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E204" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F204" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="205">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7249146400006</t>
+          <t>7249146400054</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7249146800040</t>
+          <t>7249146400055</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7249141800042</t>
+          <t>7249146500003</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="E207" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="F207" t="n">
         <v>-65</v>
@@ -5595,22 +5595,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7249146400055</t>
+          <t>7249146500005</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="E208" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="F208" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="209">
@@ -5619,22 +5619,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7249146300013</t>
+          <t>7249146500007</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v/>
+        <v>-57</v>
       </c>
       <c r="E209" t="n">
-        <v/>
+        <v>-57</v>
       </c>
       <c r="F209" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="210">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7249141800054</t>
+          <t>7249146500008</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-40</v>
+        <v>-59</v>
       </c>
       <c r="E210" t="n">
-        <v>-44</v>
+        <v>-59</v>
       </c>
       <c r="F210" t="n">
         <v>-65</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>7249146500016</t>
+          <t>7249146500011</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5700,10 +5700,10 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="E212" t="n">
-        <v>-60</v>
+        <v>-55</v>
       </c>
       <c r="F212" t="n">
         <v>-65</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7249146200039</t>
+          <t>7249146500013</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-56</v>
+        <v>-63</v>
       </c>
       <c r="E213" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
       <c r="F213" t="n">
         <v>-65</v>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7249141800045</t>
+          <t>7249146500014</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5748,10 +5748,10 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-58</v>
+        <v>-60</v>
       </c>
       <c r="E214" t="n">
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="F214" t="n">
         <v>-65</v>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7249146600049</t>
+          <t>7249146500015</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5772,10 +5772,10 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-63</v>
+        <v>-56</v>
       </c>
       <c r="E215" t="n">
-        <v>-64</v>
+        <v>-58</v>
       </c>
       <c r="F215" t="n">
         <v>-65</v>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7249146500015</t>
+          <t>7249146500016</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-56</v>
+        <v>-60</v>
       </c>
       <c r="E216" t="n">
-        <v>-58</v>
+        <v>-60</v>
       </c>
       <c r="F216" t="n">
         <v>-65</v>
@@ -5811,22 +5811,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7249146700005</t>
+          <t>7249146500017</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="E217" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="F217" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="218">
@@ -5835,22 +5835,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7249142000011</t>
+          <t>7249146500019</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v/>
+        <v>-59</v>
       </c>
       <c r="E218" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F218" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="219">
@@ -5859,22 +5859,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7249146800001</t>
+          <t>7249146500021</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E219" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F219" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="220">
@@ -5883,22 +5883,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7249146400037</t>
+          <t>7249146500022</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="E220" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="F220" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="221">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7249141800061</t>
+          <t>7249146600001</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5916,10 +5916,10 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-63</v>
+        <v>-50</v>
       </c>
       <c r="E221" t="n">
-        <v>-61</v>
+        <v>-52</v>
       </c>
       <c r="F221" t="n">
         <v>-65</v>
@@ -5931,22 +5931,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7249142000032</t>
+          <t>7249146600004</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="E222" t="n">
-        <v/>
+        <v>-51</v>
       </c>
       <c r="F222" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="223">
@@ -5955,22 +5955,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>7249142000054</t>
+          <t>7249146600005</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v/>
+        <v>-64</v>
       </c>
       <c r="E223" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="F223" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="224">
@@ -5979,22 +5979,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>7249146400042</t>
+          <t>7249146600006</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="E224" t="n">
-        <v/>
+        <v>-55</v>
       </c>
       <c r="F224" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="225">
@@ -6003,22 +6003,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>7249142000059</t>
+          <t>7249146600007</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v/>
+        <v>-60</v>
       </c>
       <c r="E225" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F225" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="226">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7249141800051</t>
+          <t>7249146600008</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6036,10 +6036,10 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="E226" t="n">
-        <v>-57</v>
+        <v>-52</v>
       </c>
       <c r="F226" t="n">
         <v>-65</v>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7249146600025</t>
+          <t>7249146600010</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6060,10 +6060,10 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-61</v>
+        <v>-57</v>
       </c>
       <c r="E227" t="n">
-        <v>-62</v>
+        <v>-54</v>
       </c>
       <c r="F227" t="n">
         <v>-65</v>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7249141800037</t>
+          <t>7249146600012</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6084,10 +6084,10 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-43</v>
+        <v>-61</v>
       </c>
       <c r="E228" t="n">
-        <v>-46</v>
+        <v>-61</v>
       </c>
       <c r="F228" t="n">
         <v>-65</v>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7249141800046</t>
+          <t>7249146600016</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6108,10 +6108,10 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="E229" t="n">
-        <v>-64</v>
+        <v>-62</v>
       </c>
       <c r="F229" t="n">
         <v>-65</v>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7249141800023</t>
+          <t>7249146600017</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6132,10 +6132,10 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-55</v>
+        <v>-64</v>
       </c>
       <c r="E230" t="n">
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="F230" t="n">
         <v>-65</v>
@@ -6147,22 +6147,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7249146300007</t>
+          <t>7249146600018</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="E231" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F231" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="232">
@@ -6171,22 +6171,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7249142000034</t>
+          <t>7249146600019</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v/>
+        <v>-44</v>
       </c>
       <c r="E232" t="n">
-        <v/>
+        <v>-47</v>
       </c>
       <c r="F232" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="233">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7249141800066</t>
+          <t>7249146600020</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6204,10 +6204,10 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-56</v>
+        <v>-63</v>
       </c>
       <c r="E233" t="n">
-        <v>-60</v>
+        <v>-61</v>
       </c>
       <c r="F233" t="n">
         <v>-65</v>
@@ -6219,22 +6219,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7249142000058</t>
+          <t>7249146600025</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v/>
+        <v>-61</v>
       </c>
       <c r="E234" t="n">
-        <v/>
+        <v>-62</v>
       </c>
       <c r="F234" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="235">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7249146200067</t>
+          <t>7249146600026</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6252,10 +6252,10 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>-59</v>
+        <v>-51</v>
       </c>
       <c r="E235" t="n">
-        <v>-60</v>
+        <v>-54</v>
       </c>
       <c r="F235" t="n">
         <v>-65</v>
@@ -6267,22 +6267,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7249142000045</t>
+          <t>7249146600028</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E236" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F236" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="237">
@@ -6291,22 +6291,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7249146700002</t>
+          <t>7249146600031</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="E237" t="n">
-        <v/>
+        <v>-47</v>
       </c>
       <c r="F237" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="238">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7249146200006</t>
+          <t>7249146600032</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6327,7 +6327,7 @@
         <v>-62</v>
       </c>
       <c r="E238" t="n">
-        <v>-52</v>
+        <v>-59</v>
       </c>
       <c r="F238" t="n">
         <v>-65</v>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7249146200031</t>
+          <t>7249146600033</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-63</v>
+        <v>-59</v>
       </c>
       <c r="E239" t="n">
         <v>-60</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7249146200050</t>
+          <t>7249146600034</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6372,10 +6372,10 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>-60</v>
+        <v>-63</v>
       </c>
       <c r="E240" t="n">
-        <v>-61</v>
+        <v>-59</v>
       </c>
       <c r="F240" t="n">
         <v>-65</v>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7249146600055</t>
+          <t>7249146600036</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6396,10 +6396,10 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-55</v>
+        <v>-65</v>
       </c>
       <c r="E241" t="n">
-        <v>-62</v>
+        <v>-64</v>
       </c>
       <c r="F241" t="n">
         <v>-65</v>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7249146600052</t>
+          <t>7249146600038</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6420,10 +6420,10 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-63</v>
+        <v>-58</v>
       </c>
       <c r="E242" t="n">
-        <v>-63</v>
+        <v>-62</v>
       </c>
       <c r="F242" t="n">
         <v>-65</v>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7249146200034</t>
+          <t>7249146600039</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6444,10 +6444,10 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>-62</v>
+        <v>-60</v>
       </c>
       <c r="E243" t="n">
-        <v>-60</v>
+        <v>-64</v>
       </c>
       <c r="F243" t="n">
         <v>-65</v>
@@ -6459,22 +6459,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7249146400034</t>
+          <t>7249146600040</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E244" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F244" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="245">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7249146200064</t>
+          <t>7249146600046</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6492,10 +6492,10 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-52</v>
+        <v>-59</v>
       </c>
       <c r="E245" t="n">
-        <v>-52</v>
+        <v>-61</v>
       </c>
       <c r="F245" t="n">
         <v>-65</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7249146600034</t>
+          <t>7249146600049</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6519,7 +6519,7 @@
         <v>-63</v>
       </c>
       <c r="E246" t="n">
-        <v>-59</v>
+        <v>-64</v>
       </c>
       <c r="F246" t="n">
         <v>-65</v>
@@ -6531,22 +6531,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7249146800014</t>
+          <t>7249146600052</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="E247" t="n">
-        <v/>
+        <v>-63</v>
       </c>
       <c r="F247" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="248">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7249141800048</t>
+          <t>7249146600053</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6564,10 +6564,10 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-57</v>
+        <v>-56</v>
       </c>
       <c r="E248" t="n">
-        <v>-62</v>
+        <v>-59</v>
       </c>
       <c r="F248" t="n">
         <v>-65</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7249146600019</t>
+          <t>7249146600055</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6588,10 +6588,10 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-44</v>
+        <v>-55</v>
       </c>
       <c r="E249" t="n">
-        <v>-47</v>
+        <v>-62</v>
       </c>
       <c r="F249" t="n">
         <v>-65</v>
@@ -6603,22 +6603,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7249146700004</t>
+          <t>7249146600056</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v/>
+        <v>-65</v>
       </c>
       <c r="E250" t="n">
-        <v/>
+        <v>-58</v>
       </c>
       <c r="F250" t="n">
-        <v/>
+        <v>-65</v>
       </c>
     </row>
     <row r="251">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7249146200073</t>
+          <t>7249146600057</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>-55</v>
+        <v>-57</v>
       </c>
       <c r="E251" t="n">
-        <v>-48</v>
+        <v>-58</v>
       </c>
       <c r="F251" t="n">
         <v>-65</v>
@@ -6651,22 +6651,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7249146200068</t>
+          <t>7249146700001</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E252" t="n">
-        <v>-61</v>
+        <v/>
       </c>
       <c r="F252" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="253">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7249146800010</t>
+          <t>7249146700002</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6699,22 +6699,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7249141700005</t>
+          <t>7249146700004</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="E254" t="n">
-        <v>-53</v>
+        <v/>
       </c>
       <c r="F254" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="255">
@@ -6723,22 +6723,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7249146200072</t>
+          <t>7249146700005</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="E255" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F255" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="256">
@@ -6747,22 +6747,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7249146600001</t>
+          <t>7249146700009</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>-50</v>
+        <v/>
       </c>
       <c r="E256" t="n">
-        <v>-52</v>
+        <v/>
       </c>
       <c r="F256" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="257">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7249146400024</t>
+          <t>7249146700010</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -6795,22 +6795,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7249146600031</t>
+          <t>7249146700013</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E258" t="n">
-        <v>-47</v>
+        <v/>
       </c>
       <c r="F258" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="259">
@@ -6819,22 +6819,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7249146200029</t>
+          <t>7249146700014</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="E259" t="n">
-        <v>-65</v>
+        <v/>
       </c>
       <c r="F259" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="260">
@@ -6843,22 +6843,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7249141800006</t>
+          <t>7249146800001</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E260" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F260" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="261">
@@ -6867,22 +6867,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7249141800058</t>
+          <t>7249146800005</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>-56</v>
+        <v/>
       </c>
       <c r="E261" t="n">
-        <v>-57</v>
+        <v/>
       </c>
       <c r="F261" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="262">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7249146400052</t>
+          <t>7249146800007</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -6915,22 +6915,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7249146600018</t>
+          <t>7249146800010</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E263" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F263" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="264">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7249146400009</t>
+          <t>7249146800014</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7249146400016</t>
+          <t>7249146800016</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -6987,22 +6987,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7249141800033</t>
+          <t>7249146800025</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E266" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="F266" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="267">
@@ -7011,22 +7011,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7249146200070</t>
+          <t>7249146800028</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="E267" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F267" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="268">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7249146400025</t>
+          <t>7249146800029</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7249146800029</t>
+          <t>7249146800030</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7249146800032</t>
+          <t>7249146800031</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7107,22 +7107,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7249146200055</t>
+          <t>7249146800032</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>-55</v>
+        <v/>
       </c>
       <c r="E271" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F271" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="272">
@@ -7131,22 +7131,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7249146200026</t>
+          <t>7249146800040</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-60</v>
+        <v/>
       </c>
       <c r="E272" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F272" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="273">
@@ -7155,22 +7155,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7249146500019</t>
+          <t>7249146800041</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-59</v>
+        <v/>
       </c>
       <c r="E273" t="n">
-        <v>-62</v>
+        <v/>
       </c>
       <c r="F273" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="274">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7249146400026</t>
+          <t>7249146800043</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7203,22 +7203,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7249141800036</t>
+          <t>7249146800044</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-58</v>
+        <v/>
       </c>
       <c r="E275" t="n">
-        <v>-64</v>
+        <v/>
       </c>
       <c r="F275" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
     <row r="276">
@@ -7227,26 +7227,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7249141800049</t>
+          <t>7249146800048</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="E276" t="n">
-        <v>-63</v>
+        <v/>
       </c>
       <c r="F276" t="n">
-        <v>-65</v>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>